--- a/data/input/base_financing_urgent.xlsx
+++ b/data/input/base_financing_urgent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25718"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/COVID19VaccineDeliveryFacility-DataAnalyticsandMonitoring/Shared Documents/Data, Analytics, and Monitoring/02 Analysis/03 CCAP data files/2022/08 - August/220812/_input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/panlilioj_who_int/Documents/covid19_vaccination_analysis/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23388CD4-9F6B-44DF-B82A-58EE6629CC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{23388CD4-9F6B-44DF-B82A-58EE6629CC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45DF387E-F222-478B-B0E7-B38980D91B4C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="4" activeTab="4" xr2:uid="{09ECBDA5-35BF-4F6F-83FF-9832054A69E9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="4" xr2:uid="{09ECBDA5-35BF-4F6F-83FF-9832054A69E9}"/>
   </bookViews>
   <sheets>
     <sheet name="INTRO" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'SCM &amp; DO contact list'!$A$1:$G$161</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="19881" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2228,15 +2228,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2860,14 +2860,14 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <protection locked="0"/>
@@ -2876,7 +2876,7 @@
   </cellStyleXfs>
   <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2911,20 +2911,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="12" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="12" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="12" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2932,8 +2932,8 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2941,7 +2941,7 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2953,8 +2953,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2981,7 +2981,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="10" fillId="9" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -2995,15 +2995,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="17" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="17" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="12" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3029,7 +3029,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3056,7 +3056,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3069,7 +3069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3089,7 +3089,7 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3126,7 +3126,7 @@
     <xf numFmtId="14" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3149,59 +3149,59 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="21" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="21" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3213,22 +3213,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="21" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="21" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -3392,7 +3392,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3402,16 +3402,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3570,13 +3570,13 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="left" relativeIndent="-1"/>
     </dxf>
     <dxf>
@@ -3599,7 +3599,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
@@ -3607,6 +3607,133 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3646,133 +3773,6 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3981,7 +3981,7 @@
     <cacheField name="Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call" numFmtId="0">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-12-30T00:00:00" maxDate="2022-06-25T00:00:00"/>
     </cacheField>
-    <cacheField name="Amount to be funded" numFmtId="166">
+    <cacheField name="Amount to be funded" numFmtId="168">
       <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="14629690.973559324"/>
     </cacheField>
     <cacheField name="Allocation of funds internally approved by the funder (yes / no)" numFmtId="0">
@@ -5621,7 +5621,1029 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3458E9B2-3DAF-408A-A618-E46B8F8A1534}" name="PivotTable9" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B06D34D-E967-4F07-BE8F-7D9DBCF93C3B}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C154:G157" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="36">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="16">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Amount tracked through this row" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F89165E-9391-45E5-9D20-C20D54DB34C0}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C187:F190" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="36">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="16">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="64">
+        <item h="1" x="9"/>
+        <item h="1" x="19"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" x="4"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item x="1"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" x="18"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" x="23"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" x="33"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" x="25"/>
+        <item h="1" x="15"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" x="29"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" x="26"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" x="22"/>
+        <item h="1" x="17"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" x="16"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" x="35"/>
+        <item h="1" x="10"/>
+        <item h="1" x="30"/>
+        <item h="1" x="31"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" x="24"/>
+        <item h="1" x="37"/>
+        <item h="1" x="28"/>
+        <item h="1" x="34"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" x="36"/>
+        <item h="1" x="27"/>
+        <item h="1" x="32"/>
+        <item h="1" x="5"/>
+        <item h="1" x="8"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Amount tracked through this row" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="55">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F0A37B7-B499-4C24-98E9-ED9369C94850}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C105:S112" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="36">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="16">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="56">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C95694D5-8175-4B48-8A9A-D33DEB874BC7}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C90:S97" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="36">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="16">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Amount tracked through this row" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AB956CA-8B6A-4AE4-A7C2-B601FA06A7AC}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C138:G143" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="36">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="16">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="35">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D75FFD55-5582-4181-BA17-1C4A3DEEF967}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C36:S43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="36">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="16">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Amount tracked through this row" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3458E9B2-3DAF-408A-A618-E46B8F8A1534}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C21:S28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="36">
     <pivotField showAll="0"/>
@@ -5781,44 +6803,44 @@
     <dataField name="Sum of Amount tracked through this row" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="53">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="43">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="42">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="24" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="41">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="24" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="24" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="39">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -5834,656 +6856,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2347BD2D-EC6A-4590-96DC-7E56E434433E}" name="PivotTable5" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C163:G166" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="36">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="16">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="35">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="36">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B06D34D-E967-4F07-BE8F-7D9DBCF93C3B}" name="PivotTable6" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C154:G157" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="36">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="16">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Amount tracked through this row" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="33">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="34">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F74D45C-E5D3-4038-ADBF-4D28420CD0C9}" name="PivotTable8" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C196:F199" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="36">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="16">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="64">
-        <item h="1" x="9"/>
-        <item h="1" x="19"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" x="4"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item x="1"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" x="18"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" x="23"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" x="33"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" x="25"/>
-        <item h="1" x="15"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" x="29"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" x="26"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" x="22"/>
-        <item h="1" x="17"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" x="16"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" x="35"/>
-        <item h="1" x="10"/>
-        <item h="1" x="30"/>
-        <item h="1" x="31"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" x="24"/>
-        <item h="1" x="37"/>
-        <item h="1" x="28"/>
-        <item h="1" x="34"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" x="36"/>
-        <item h="1" x="27"/>
-        <item h="1" x="32"/>
-        <item h="1" x="5"/>
-        <item h="1" x="8"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="7" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="51">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="52">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="7" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F0A37B7-B499-4C24-98E9-ED9369C94850}" name="PivotTable3" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C105:S112" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="36">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="16">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="16">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="49">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="50">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F43C6DA9-A35C-4046-ADBB-B82E9DEBFE1C}" name="PivotTable11" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F43C6DA9-A35C-4046-ADBB-B82E9DEBFE1C}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="C207:F228" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="36">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -6633,14 +7007,14 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="1" baseItem="4" numFmtId="166"/>
+    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="1" baseItem="4" numFmtId="168"/>
     <dataField name="Average of Utilization rate" fld="22" subtotal="average" baseField="1" baseItem="4" numFmtId="9"/>
   </dataFields>
   <formats count="2">
     <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="46">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6695,8 +7069,336 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{424D518F-E944-4532-8FA4-46573B5E3DD0}" name="PivotTable2" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2347BD2D-EC6A-4590-96DC-7E56E434433E}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C163:G166" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="36">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="16">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="49">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F74D45C-E5D3-4038-ADBF-4D28420CD0C9}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C196:F199" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="36">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="16">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="64">
+        <item h="1" x="9"/>
+        <item h="1" x="19"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" x="4"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item x="1"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" x="18"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" x="23"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" x="33"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" x="25"/>
+        <item h="1" x="15"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" x="29"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" x="26"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" x="22"/>
+        <item h="1" x="17"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" x="16"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" x="35"/>
+        <item h="1" x="10"/>
+        <item h="1" x="30"/>
+        <item h="1" x="31"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" x="24"/>
+        <item h="1" x="37"/>
+        <item h="1" x="28"/>
+        <item h="1" x="34"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" x="36"/>
+        <item h="1" x="27"/>
+        <item h="1" x="32"/>
+        <item h="1" x="5"/>
+        <item h="1" x="8"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="51">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{424D518F-E944-4532-8FA4-46573B5E3DD0}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C124:S131" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="36">
     <pivotField showAll="0"/>
@@ -6856,716 +7558,14 @@
     <dataField name="Count of Amount tracked through this row" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="45">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AB956CA-8B6A-4AE4-A7C2-B601FA06A7AC}" name="PivotTable4" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C138:G143" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="36">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="16">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="43">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="44">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F89165E-9391-45E5-9D20-C20D54DB34C0}" name="PivotTable7" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C187:F190" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="36">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="16">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="64">
-        <item h="1" x="9"/>
-        <item h="1" x="19"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" x="4"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item x="1"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" x="18"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" x="23"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" x="33"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" x="25"/>
-        <item h="1" x="15"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" x="29"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" x="26"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" x="22"/>
-        <item h="1" x="17"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" x="16"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" x="35"/>
-        <item h="1" x="10"/>
-        <item h="1" x="30"/>
-        <item h="1" x="31"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" x="24"/>
-        <item h="1" x="37"/>
-        <item h="1" x="28"/>
-        <item h="1" x="34"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" x="36"/>
-        <item h="1" x="27"/>
-        <item h="1" x="32"/>
-        <item h="1" x="5"/>
-        <item h="1" x="8"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="7" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Amount tracked through this row" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="41">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="42">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="7" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C95694D5-8175-4B48-8A9A-D33DEB874BC7}" name="PivotTable1" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C90:S97" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="36">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="16">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="16">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Amount tracked through this row" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="39">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="40">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D75FFD55-5582-4181-BA17-1C4A3DEEF967}" name="PivotTable10" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C36:S43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="36">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="16">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="16">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Amount tracked through this row" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="38">
+    <format dxfId="52">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7582,10 +7582,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8CD85316-1962-48CB-B11E-56F26A3CB437}" name="Table7" displayName="Table7" ref="B53:U59" totalsRowShown="0" headerRowDxfId="32" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8CD85316-1962-48CB-B11E-56F26A3CB437}" name="Table7" displayName="Table7" ref="B53:U59" totalsRowShown="0" headerRowDxfId="60" tableBorderDxfId="59">
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{E8E3A216-192D-4D9E-BBAE-B1D42BAB296C}" name="Description of tabs"/>
-    <tableColumn id="2" xr3:uid="{89251F53-2BAF-423C-9488-A694EB0C8FF0}" name="Column1" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{89251F53-2BAF-423C-9488-A694EB0C8FF0}" name="Column1" dataDxfId="58"/>
     <tableColumn id="3" xr3:uid="{ED334533-5FC0-4D35-8699-5B8B0A2E5750}" name="Column2"/>
     <tableColumn id="4" xr3:uid="{186507F2-39A2-493D-84A5-C825A173498F}" name="Column3"/>
     <tableColumn id="5" xr3:uid="{5B637BC1-57FE-4C0B-93C2-47A99E7B0E0E}" name="Column4"/>
@@ -7722,7 +7722,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12E7248E-6485-4C21-94AC-7B82A60F972D}" name="Table3" displayName="Table3" ref="A1:F3" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12E7248E-6485-4C21-94AC-7B82A60F972D}" name="Table3" displayName="Table3" ref="A1:F3" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A1:F3" xr:uid="{12E7248E-6485-4C21-94AC-7B82A60F972D}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{159D67A2-96F3-4D1A-8732-896C75B0A54D}" name="Country"/>
@@ -8063,17 +8063,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="46.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="20" width="11.42578125" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.1328125" customWidth="1"/>
+    <col min="3" max="3" width="30.86328125" customWidth="1"/>
+    <col min="4" max="10" width="10.3984375" customWidth="1"/>
+    <col min="11" max="11" width="11.86328125" customWidth="1"/>
+    <col min="12" max="20" width="11.3984375" customWidth="1"/>
+    <col min="21" max="21" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="24" thickBot="1">
+    <row r="2" spans="2:21" ht="23.65" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
@@ -8097,7 +8097,7 @@
       <c r="T2" s="54"/>
       <c r="U2" s="54"/>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B4" s="49" t="s">
         <v>1</v>
       </c>
@@ -8115,7 +8115,7 @@
       <c r="J4" s="50"/>
       <c r="K4" s="51"/>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B6" s="98" t="s">
         <v>3</v>
       </c>
@@ -8131,7 +8131,7 @@
       <c r="J6" s="99"/>
       <c r="K6" s="100"/>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B7" s="101" t="s">
         <v>5</v>
       </c>
@@ -8140,7 +8140,7 @@
       </c>
       <c r="K7" s="102"/>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B8" s="101" t="s">
         <v>7</v>
       </c>
@@ -8152,133 +8152,133 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B9" s="101" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="102"/>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B10" s="104"/>
       <c r="K10" s="102"/>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B11" s="104"/>
       <c r="K11" s="102"/>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B12" s="104"/>
       <c r="K12" s="102"/>
     </row>
-    <row r="13" spans="2:21">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B13" s="104"/>
       <c r="K13" s="102"/>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B14" s="104"/>
       <c r="K14" s="102"/>
     </row>
-    <row r="15" spans="2:21">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B15" s="104"/>
       <c r="K15" s="102"/>
     </row>
-    <row r="16" spans="2:21">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B16" s="104"/>
       <c r="K16" s="102"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" s="104"/>
       <c r="K17" s="102"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B18" s="104"/>
       <c r="K18" s="102"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B19" s="104"/>
       <c r="K19" s="102"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B20" s="104"/>
       <c r="K20" s="102"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B21" s="104"/>
       <c r="K21" s="102"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B22" s="104"/>
       <c r="K22" s="102"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B23" s="104"/>
       <c r="K23" s="102"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B24" s="104"/>
       <c r="K24" s="102"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B25" s="104"/>
       <c r="K25" s="102"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B26" s="104"/>
       <c r="K26" s="102"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B27" s="104"/>
       <c r="K27" s="102"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B28" s="104"/>
       <c r="K28" s="102"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B29" s="104"/>
       <c r="K29" s="102"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B30" s="104"/>
       <c r="K30" s="102"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B31" s="104"/>
       <c r="K31" s="102"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B32" s="104"/>
       <c r="K32" s="102"/>
     </row>
-    <row r="33" spans="2:21">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B33" s="104"/>
       <c r="K33" s="102"/>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B34" s="104"/>
       <c r="K34" s="102"/>
     </row>
-    <row r="35" spans="2:21">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B35" s="104"/>
       <c r="K35" s="102"/>
     </row>
-    <row r="36" spans="2:21">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B36" s="104"/>
       <c r="K36" s="102"/>
     </row>
-    <row r="37" spans="2:21">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B37" s="104"/>
       <c r="K37" s="102"/>
     </row>
-    <row r="38" spans="2:21">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B38" s="104"/>
       <c r="K38" s="102"/>
     </row>
-    <row r="39" spans="2:21">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B39" s="104"/>
       <c r="K39" s="102"/>
     </row>
-    <row r="40" spans="2:21">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B40" s="105"/>
       <c r="C40" s="106"/>
       <c r="D40" s="106"/>
@@ -8290,7 +8290,7 @@
       <c r="J40" s="106"/>
       <c r="K40" s="107"/>
     </row>
-    <row r="42" spans="2:21">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B42" s="49" t="s">
         <v>11</v>
       </c>
@@ -8314,7 +8314,7 @@
       <c r="T42" s="50"/>
       <c r="U42" s="51"/>
     </row>
-    <row r="43" spans="2:21">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B43" s="24" t="s">
         <v>12</v>
       </c>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="U43" s="25"/>
     </row>
-    <row r="44" spans="2:21">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B44" s="24" t="s">
         <v>14</v>
       </c>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="U44" s="25"/>
     </row>
-    <row r="45" spans="2:21">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B45" s="24" t="s">
         <v>16</v>
       </c>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="U45" s="25"/>
     </row>
-    <row r="46" spans="2:21">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B46" s="24" t="s">
         <v>18</v>
       </c>
@@ -8350,7 +8350,7 @@
       </c>
       <c r="U46" s="25"/>
     </row>
-    <row r="47" spans="2:21">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B47" s="24" t="s">
         <v>20</v>
       </c>
@@ -8359,7 +8359,7 @@
       </c>
       <c r="U47" s="25"/>
     </row>
-    <row r="48" spans="2:21">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B48" s="24" t="s">
         <v>22</v>
       </c>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="U48" s="25"/>
     </row>
-    <row r="49" spans="2:21">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B49" s="26" t="s">
         <v>24</v>
       </c>
@@ -8394,7 +8394,7 @@
       <c r="T49" s="27"/>
       <c r="U49" s="28"/>
     </row>
-    <row r="51" spans="2:21">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B51" s="49" t="s">
         <v>26</v>
       </c>
@@ -8418,11 +8418,11 @@
       <c r="T51" s="50"/>
       <c r="U51" s="51"/>
     </row>
-    <row r="52" spans="2:21">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B52" s="108"/>
       <c r="U52" s="25"/>
     </row>
-    <row r="53" spans="2:21">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B53" s="121" t="s">
         <v>27</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:21" ht="43.5">
+    <row r="54" spans="2:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>47</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:21" ht="29.1">
+    <row r="55" spans="2:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>50</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="2:21" ht="29.1">
+    <row r="56" spans="2:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>53</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:21" ht="29.1">
+    <row r="57" spans="2:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
         <v>56</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>Extract from Funding tracker - for WHO visibility</v>
       </c>
     </row>
-    <row r="58" spans="2:21" ht="29.1">
+    <row r="58" spans="2:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>58</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="2:21" ht="43.5">
+    <row r="59" spans="2:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B59" s="27" t="s">
         <v>60</v>
       </c>
@@ -8589,19 +8589,19 @@
       <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1"/>
-    <col min="8" max="8" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1328125" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="33.3984375" customWidth="1"/>
+    <col min="5" max="5" width="23.86328125" customWidth="1"/>
+    <col min="6" max="6" width="40.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.86328125" customWidth="1"/>
+    <col min="8" max="8" width="37.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>324</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>102</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>337</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>341</v>
       </c>
@@ -8687,7 +8687,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>346</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>347</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>350</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>353</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>356</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>357</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>360</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>361</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>362</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>365</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>370</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>371</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>372</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>377</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>380</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>383</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>386</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>387</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>390</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>391</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
         <v>92</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>395</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>398</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>401</v>
       </c>
@@ -9108,7 +9108,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>402</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>405</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>408</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>409</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>93</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>416</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
         <v>417</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>420</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>421</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
         <v>424</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>425</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
         <v>426</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
         <v>427</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>430</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>433</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>434</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>94</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>439</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="7" t="s">
         <v>440</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
         <v>441</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
         <v>444</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>445</v>
       </c>
@@ -9518,7 +9518,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>446</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>95</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="7" t="s">
         <v>451</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>454</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="7" t="s">
         <v>455</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
         <v>458</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="7" t="s">
         <v>100</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
         <v>462</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
         <v>463</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
         <v>464</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="7" t="s">
         <v>465</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
         <v>466</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
         <v>467</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>470</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="7" t="s">
         <v>471</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
         <v>474</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="7" t="s">
         <v>475</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
         <v>476</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="7" t="s">
         <v>477</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
         <v>478</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="7" t="s">
         <v>479</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
         <v>482</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="7" t="s">
         <v>105</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
         <v>484</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="7" t="s">
         <v>485</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
         <v>486</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="7" t="s">
         <v>487</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
         <v>96</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="7" t="s">
         <v>492</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
         <v>493</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="7" t="s">
         <v>496</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="5" t="s">
         <v>497</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="7" t="s">
         <v>498</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
         <v>106</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="7" t="s">
         <v>499</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
         <v>500</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="7" t="s">
         <v>501</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
         <v>502</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="7" t="s">
         <v>503</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="5" t="s">
         <v>504</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="7" t="s">
         <v>505</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="5" t="s">
         <v>506</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="7" t="s">
         <v>507</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
         <v>510</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="7" t="s">
         <v>513</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
         <v>514</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="7" t="s">
         <v>515</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" s="5" t="s">
         <v>516</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="7" t="s">
         <v>517</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="5" t="s">
         <v>519</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="7" t="s">
         <v>520</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="5" t="s">
         <v>521</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="7" t="s">
         <v>522</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="5" t="s">
         <v>523</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="7" t="s">
         <v>524</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="5" t="s">
         <v>525</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="7" t="s">
         <v>101</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="5" t="s">
         <v>528</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="7" t="s">
         <v>529</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="5" t="s">
         <v>530</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" s="7" t="s">
         <v>533</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" s="5" t="s">
         <v>534</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" s="11" t="s">
         <v>535</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" s="5" t="s">
         <v>538</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" s="7" t="s">
         <v>539</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" s="5" t="s">
         <v>540</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" s="7" t="s">
         <v>541</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" s="5" t="s">
         <v>542</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" s="7" t="s">
         <v>543</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" s="5" t="s">
         <v>544</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" s="7" t="s">
         <v>545</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" s="5" t="s">
         <v>546</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" s="7" t="s">
         <v>548</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" s="5" t="s">
         <v>549</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125" s="7" t="s">
         <v>550</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="5" t="s">
         <v>551</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127" s="7" t="s">
         <v>97</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" s="7" t="s">
         <v>552</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129" s="5" t="s">
         <v>553</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" s="7" t="s">
         <v>104</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131" s="5" t="s">
         <v>558</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" s="7" t="s">
         <v>561</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133" s="5" t="s">
         <v>98</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134" s="7" t="s">
         <v>564</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" s="5" t="s">
         <v>103</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136" s="7" t="s">
         <v>567</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137" s="5" t="s">
         <v>568</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138" s="7" t="s">
         <v>569</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139" s="5" t="s">
         <v>570</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140" s="7" t="s">
         <v>571</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141" s="5" t="s">
         <v>572</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142" s="7" t="s">
         <v>573</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143" s="5" t="s">
         <v>574</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144" s="7" t="s">
         <v>575</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" s="5" t="s">
         <v>576</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="7" t="s">
         <v>577</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="5" t="s">
         <v>578</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="7" t="s">
         <v>579</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="5" t="s">
         <v>580</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="7" t="s">
         <v>581</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="5" t="s">
         <v>582</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="7" t="s">
         <v>583</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="5" t="s">
         <v>584</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="7" t="s">
         <v>585</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="5" t="s">
         <v>586</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="7" t="s">
         <v>587</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="5" t="s">
         <v>588</v>
       </c>
@@ -11545,7 +11545,7 @@
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" s="7" t="s">
         <v>590</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="5" t="s">
         <v>99</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" s="7" t="s">
         <v>591</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="5" t="s">
         <v>592</v>
       </c>
@@ -11755,78 +11755,78 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" customWidth="1"/>
+    <col min="3" max="3" width="42.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="16"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="2:3" ht="29.25" customHeight="1">
+    <row r="19" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>63</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>64</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>66</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>65</v>
       </c>
@@ -11858,13 +11858,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B25" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>76</v>
       </c>
@@ -11891,7 +11891,7 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11905,33 +11905,33 @@
       <selection activeCell="E224" sqref="E224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.85546875" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.86328125" customWidth="1"/>
+    <col min="3" max="3" width="40.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1328125" customWidth="1"/>
+    <col min="8" max="8" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="18.600000000000001">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="19">
         <v>1</v>
       </c>
@@ -11940,19 +11940,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21">
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="C3" s="71" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="59"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C4" s="111" t="s">
         <v>79</v>
       </c>
       <c r="D4" s="59"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C5" s="29" t="s">
         <v>80</v>
       </c>
@@ -11965,7 +11965,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C6" s="30"/>
       <c r="D6" s="32" t="s">
         <v>82</v>
@@ -11986,7 +11986,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C7" s="24" t="s">
         <v>12</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C8" s="24" t="s">
         <v>14</v>
       </c>
@@ -12029,7 +12029,7 @@
       <c r="H8" s="110"/>
       <c r="I8" s="117"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C9" s="24" t="s">
         <v>16</v>
       </c>
@@ -12043,7 +12043,7 @@
       <c r="H9" s="110"/>
       <c r="I9" s="117"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C11" s="24" t="s">
         <v>83</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C12" s="24" t="s">
         <v>84</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C13" s="26" t="s">
         <v>22</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C14" s="48" t="s">
         <v>24</v>
       </c>
@@ -12173,26 +12173,26 @@
       <c r="H14" s="46"/>
       <c r="I14" s="47"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D15" s="72"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="73"/>
       <c r="H15" s="73"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D16" s="72"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="73"/>
       <c r="H16" s="73"/>
     </row>
-    <row r="17" spans="3:19" ht="21">
+    <row r="17" spans="3:19" ht="21" x14ac:dyDescent="0.65">
       <c r="C17" s="71" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="3:19">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C19" s="67" t="s">
         <v>86</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="3:19">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C21" s="67" t="s">
         <v>89</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="3:19">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C22" s="67" t="s">
         <v>91</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="3:19">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C23" s="143" t="s">
         <v>22</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>52203288.759999998</v>
       </c>
     </row>
-    <row r="24" spans="3:19">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C24" s="143" t="s">
         <v>14</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>20629690.973559324</v>
       </c>
     </row>
-    <row r="25" spans="3:19">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C25" s="143" t="s">
         <v>24</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="26" spans="3:19">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C26" s="143" t="s">
         <v>84</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>23614486</v>
       </c>
     </row>
-    <row r="27" spans="3:19">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C27" s="143" t="s">
         <v>18</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>2154578.606060606</v>
       </c>
     </row>
-    <row r="28" spans="3:19">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C28" s="68" t="s">
         <v>107</v>
       </c>
@@ -12478,19 +12478,19 @@
         <v>98827044.339619935</v>
       </c>
     </row>
-    <row r="31" spans="3:19">
+    <row r="31" spans="3:19" x14ac:dyDescent="0.45">
       <c r="D31" s="72"/>
       <c r="E31" s="73"/>
       <c r="F31" s="73"/>
       <c r="G31" s="73"/>
       <c r="H31" s="73"/>
     </row>
-    <row r="32" spans="3:19" ht="21">
+    <row r="32" spans="3:19" ht="21" x14ac:dyDescent="0.65">
       <c r="C32" s="71" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C34" s="67" t="s">
         <v>86</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C36" s="67" t="s">
         <v>109</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C37" s="67" t="s">
         <v>91</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C38" s="68" t="s">
         <v>22</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C39" s="68" t="s">
         <v>14</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C40" s="68" t="s">
         <v>24</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C41" s="68" t="s">
         <v>84</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C42" s="68" t="s">
         <v>18</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C43" s="68" t="s">
         <v>107</v>
       </c>
@@ -12776,14 +12776,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D46" s="72"/>
       <c r="E46" s="73"/>
       <c r="F46" s="73"/>
       <c r="G46" s="73"/>
       <c r="H46" s="73"/>
     </row>
-    <row r="47" spans="1:19" s="21" customFormat="1" ht="18.600000000000001">
+    <row r="47" spans="1:19" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="19">
         <v>2</v>
       </c>
@@ -12792,13 +12792,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="20" customFormat="1" ht="18.600000000000001"/>
-    <row r="49" spans="3:15" s="20" customFormat="1" ht="21">
+    <row r="48" spans="1:19" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" spans="3:15" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.65">
       <c r="C49" s="71" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="3:15" s="20" customFormat="1" ht="18.600000000000001">
+    <row r="50" spans="3:15" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="C50" s="111" t="s">
         <v>112</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="3:15" s="20" customFormat="1" ht="51.75" customHeight="1">
+    <row r="51" spans="3:15" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C51" s="93" t="s">
         <v>63</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="3:15" s="20" customFormat="1" ht="18.600000000000001">
+    <row r="52" spans="3:15" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" s="79" t="s">
         <v>66</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>31.142857142857142</v>
       </c>
     </row>
-    <row r="53" spans="3:15" s="20" customFormat="1" ht="18.600000000000001">
+    <row r="53" spans="3:15" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" s="80" t="s">
         <v>64</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>5.4615384615384617</v>
       </c>
     </row>
-    <row r="54" spans="3:15" s="20" customFormat="1" ht="18.600000000000001">
+    <row r="54" spans="3:15" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" s="82" t="s">
         <v>65</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="55" spans="3:15" s="20" customFormat="1" ht="18.600000000000001">
+    <row r="55" spans="3:15" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" s="85" t="s">
         <v>82</v>
       </c>
@@ -12931,13 +12931,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="3:15" s="20" customFormat="1" ht="18.600000000000001"/>
-    <row r="57" spans="3:15" s="20" customFormat="1" ht="21">
+    <row r="56" spans="3:15" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="57" spans="3:15" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.65">
       <c r="C57" s="71" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="3:15">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C58" s="31" t="s">
         <v>121</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="3:15">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C59" s="93" t="s">
         <v>63</v>
       </c>
@@ -12997,7 +12997,7 @@
       <c r="N59" s="22"/>
       <c r="O59" s="23"/>
     </row>
-    <row r="60" spans="3:15">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C60" s="75"/>
       <c r="D60" s="76">
         <v>44562</v>
@@ -13036,7 +13036,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="61" spans="3:15">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C61" s="79" t="s">
         <v>66</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="62" spans="3:15">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C62" s="80" t="s">
         <v>64</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="63" spans="3:15">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C63" s="82" t="s">
         <v>65</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="64" spans="3:15">
+    <row r="64" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C64" s="85" t="s">
         <v>82</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C65" s="74"/>
       <c r="D65" s="74"/>
       <c r="E65" s="74"/>
@@ -13257,7 +13257,7 @@
       <c r="H65" s="74"/>
       <c r="I65" s="74"/>
     </row>
-    <row r="67" spans="1:9" s="21" customFormat="1" ht="18.600000000000001">
+    <row r="67" spans="1:9" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="19">
         <v>3</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C69" t="s">
         <v>124</v>
       </c>
@@ -13277,12 +13277,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.6">
+    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C70" s="111" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C71" s="29" t="s">
         <v>80</v>
       </c>
@@ -13295,7 +13295,7 @@
       <c r="H71" s="22"/>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C72" s="30"/>
       <c r="D72" s="32" t="s">
         <v>82</v>
@@ -13316,7 +13316,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C73" s="24" t="s">
         <v>127</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C74" s="24" t="s">
         <v>14</v>
       </c>
@@ -13359,7 +13359,7 @@
       <c r="H74" s="43"/>
       <c r="I74" s="44"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C75" s="24" t="s">
         <v>16</v>
       </c>
@@ -13373,7 +13373,7 @@
       <c r="H75" s="43"/>
       <c r="I75" s="44"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C76" s="24" t="s">
         <v>18</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C77" s="24" t="s">
         <v>83</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C78" s="24" t="s">
         <v>84</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C79" s="26" t="s">
         <v>22</v>
       </c>
@@ -13489,7 +13489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C80" s="48" t="s">
         <v>24</v>
       </c>
@@ -13503,7 +13503,7 @@
       <c r="H80" s="46"/>
       <c r="I80" s="47"/>
     </row>
-    <row r="84" spans="1:19" s="21" customFormat="1" ht="18.600000000000001">
+    <row r="84" spans="1:19" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="19">
         <v>4</v>
       </c>
@@ -13512,17 +13512,17 @@
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="21">
+    <row r="86" spans="1:19" ht="21" x14ac:dyDescent="0.65">
       <c r="C86" s="71" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.45">
       <c r="E87" s="59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C88" s="67" t="s">
         <v>86</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C90" s="67" t="s">
         <v>109</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C91" s="67" t="s">
         <v>91</v>
       </c>
@@ -13591,7 +13591,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C92" s="68" t="s">
         <v>22</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C93" s="68" t="s">
         <v>14</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C94" s="68" t="s">
         <v>24</v>
       </c>
@@ -13698,7 +13698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C95" s="68" t="s">
         <v>84</v>
       </c>
@@ -13727,7 +13727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C96" s="68" t="s">
         <v>18</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="3:19">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C97" s="68" t="s">
         <v>107</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="3:19">
+    <row r="100" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C100" s="68"/>
       <c r="D100" s="55"/>
       <c r="E100" s="55"/>
@@ -13814,7 +13814,7 @@
       <c r="H100" s="55"/>
       <c r="I100" s="55"/>
     </row>
-    <row r="101" spans="3:19" ht="21">
+    <row r="101" spans="3:19" ht="21" x14ac:dyDescent="0.65">
       <c r="C101" s="71" t="s">
         <v>130</v>
       </c>
@@ -13825,12 +13825,12 @@
       <c r="H101" s="55"/>
       <c r="I101" s="55"/>
     </row>
-    <row r="102" spans="3:19">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.45">
       <c r="E102" s="59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="103" spans="3:19">
+    <row r="103" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C103" s="67" t="s">
         <v>86</v>
       </c>
@@ -13838,7 +13838,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="3:19">
+    <row r="105" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C105" s="67" t="s">
         <v>89</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="3:19">
+    <row r="106" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C106" s="67" t="s">
         <v>91</v>
       </c>
@@ -13899,7 +13899,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="3:19">
+    <row r="107" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C107" s="68" t="s">
         <v>22</v>
       </c>
@@ -13942,7 +13942,7 @@
         <v>52203288.759999998</v>
       </c>
     </row>
-    <row r="108" spans="3:19">
+    <row r="108" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C108" s="68" t="s">
         <v>14</v>
       </c>
@@ -13977,7 +13977,7 @@
         <v>20629690.973559324</v>
       </c>
     </row>
-    <row r="109" spans="3:19">
+    <row r="109" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C109" s="68" t="s">
         <v>24</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="110" spans="3:19">
+    <row r="110" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C110" s="68" t="s">
         <v>84</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>23614486</v>
       </c>
     </row>
-    <row r="111" spans="3:19">
+    <row r="111" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C111" s="68" t="s">
         <v>18</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>2154578.606060606</v>
       </c>
     </row>
-    <row r="112" spans="3:19">
+    <row r="112" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C112" s="68" t="s">
         <v>107</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>98827044.339619935</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C115" s="68"/>
       <c r="D115" s="55"/>
       <c r="E115" s="55"/>
@@ -14122,7 +14122,7 @@
       <c r="H115" s="55"/>
       <c r="I115" s="55"/>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C116" s="68"/>
       <c r="D116" s="55"/>
       <c r="E116" s="55"/>
@@ -14131,7 +14131,7 @@
       <c r="H116" s="55"/>
       <c r="I116" s="55"/>
     </row>
-    <row r="118" spans="1:19" s="21" customFormat="1" ht="18.600000000000001">
+    <row r="118" spans="1:19" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="19">
         <v>5</v>
       </c>
@@ -14140,18 +14140,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:19" s="20" customFormat="1" ht="18.600000000000001"/>
-    <row r="120" spans="1:19" ht="21">
+    <row r="119" spans="1:19" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="120" spans="1:19" ht="21" x14ac:dyDescent="0.65">
       <c r="C120" s="71" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.45">
       <c r="E121" s="59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C122" s="67" t="s">
         <v>86</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C124" s="67" t="s">
         <v>109</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C125" s="67" t="s">
         <v>91</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C126" s="68" t="s">
         <v>22</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C127" s="68" t="s">
         <v>14</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C128" s="68" t="s">
         <v>24</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="3:19">
+    <row r="129" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C129" s="68" t="s">
         <v>84</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="3:19">
+    <row r="130" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C130" s="68" t="s">
         <v>18</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="3:19">
+    <row r="131" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C131" s="68" t="s">
         <v>107</v>
       </c>
@@ -14434,17 +14434,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="3:19" ht="21">
+    <row r="134" spans="3:19" ht="21" x14ac:dyDescent="0.65">
       <c r="C134" s="71" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="135" spans="3:19">
+    <row r="135" spans="3:19" x14ac:dyDescent="0.45">
       <c r="E135" s="59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="136" spans="3:19">
+    <row r="136" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C136" s="67" t="s">
         <v>86</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="138" spans="3:19">
+    <row r="138" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C138" s="67" t="s">
         <v>89</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="3:19">
+    <row r="139" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C139" s="67" t="s">
         <v>91</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="140" spans="3:19">
+    <row r="140" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C140" s="68" t="s">
         <v>22</v>
       </c>
@@ -14494,7 +14494,7 @@
         <v>14131295</v>
       </c>
     </row>
-    <row r="141" spans="3:19">
+    <row r="141" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C141" s="68" t="s">
         <v>14</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>14629690.973559324</v>
       </c>
     </row>
-    <row r="142" spans="3:19">
+    <row r="142" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C142" s="68" t="s">
         <v>84</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>7200000</v>
       </c>
     </row>
-    <row r="143" spans="3:19">
+    <row r="143" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C143" s="68" t="s">
         <v>107</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>35960985.97355932</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="21" customFormat="1" ht="18.600000000000001">
+    <row r="148" spans="1:7" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="19">
         <v>6</v>
       </c>
@@ -14546,17 +14546,17 @@
         <v>134</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="21">
+    <row r="150" spans="1:7" ht="21" x14ac:dyDescent="0.65">
       <c r="C150" s="71" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E151" s="59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C152" s="67" t="s">
         <v>86</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C154" s="67" t="s">
         <v>109</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C155" s="67" t="s">
         <v>91</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C156" s="68" t="s">
         <v>24</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C157" s="68" t="s">
         <v>107</v>
       </c>
@@ -14623,17 +14623,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="21">
+    <row r="159" spans="1:7" ht="21" x14ac:dyDescent="0.65">
       <c r="C159" s="71" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E160" s="59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C161" s="67" t="s">
         <v>86</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C163" s="67" t="s">
         <v>89</v>
       </c>
@@ -14649,7 +14649,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C164" s="67" t="s">
         <v>91</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C165" s="68" t="s">
         <v>24</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C166" s="68" t="s">
         <v>107</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="169" spans="1:16" s="21" customFormat="1" ht="18.600000000000001">
+    <row r="169" spans="1:16" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="19">
         <v>7</v>
       </c>
@@ -14709,12 +14709,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15.6">
+    <row r="171" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
       <c r="K171" s="111" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C172" s="29" t="s">
         <v>80</v>
       </c>
@@ -14735,7 +14735,7 @@
       <c r="O172" s="22"/>
       <c r="P172" s="23"/>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C173" s="30"/>
       <c r="D173" s="32" t="s">
         <v>82</v>
@@ -14760,7 +14760,7 @@
       </c>
       <c r="P173" s="25"/>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C174" s="24" t="s">
         <v>127</v>
       </c>
@@ -14798,7 +14798,7 @@
       <c r="O174" s="27"/>
       <c r="P174" s="28"/>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C175" s="24" t="s">
         <v>14</v>
       </c>
@@ -14812,7 +14812,7 @@
       <c r="H175" s="96"/>
       <c r="I175" s="44"/>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C176" s="24" t="s">
         <v>16</v>
       </c>
@@ -14826,7 +14826,7 @@
       <c r="H176" s="96"/>
       <c r="I176" s="44"/>
     </row>
-    <row r="177" spans="3:9">
+    <row r="177" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C177" s="24" t="s">
         <v>18</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:9">
+    <row r="178" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C178" s="24" t="s">
         <v>83</v>
       </c>
@@ -14866,7 +14866,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="39"/>
     </row>
-    <row r="179" spans="3:9">
+    <row r="179" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C179" s="24" t="s">
         <v>84</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:9">
+    <row r="180" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C180" s="26" t="s">
         <v>22</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:9">
+    <row r="181" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C181" s="48" t="s">
         <v>24</v>
       </c>
@@ -14938,12 +14938,12 @@
       <c r="H181" s="46"/>
       <c r="I181" s="47"/>
     </row>
-    <row r="183" spans="3:9" ht="21">
+    <row r="183" spans="3:9" ht="21" x14ac:dyDescent="0.65">
       <c r="C183" s="71" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="3:9">
+    <row r="185" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C185" s="67" t="s">
         <v>141</v>
       </c>
@@ -14954,7 +14954,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="187" spans="3:9">
+    <row r="187" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C187" s="67" t="s">
         <v>109</v>
       </c>
@@ -14962,7 +14962,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="3:9">
+    <row r="188" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C188" s="67" t="s">
         <v>91</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="189" spans="3:9">
+    <row r="189" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C189" s="68" t="s">
         <v>22</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="3:9">
+    <row r="190" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C190" s="68" t="s">
         <v>107</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="3:9" ht="21">
+    <row r="192" spans="3:9" ht="21" x14ac:dyDescent="0.65">
       <c r="C192" s="71" t="s">
         <v>78</v>
       </c>
@@ -15015,7 +15015,7 @@
       <c r="H192" s="55"/>
       <c r="I192" s="55"/>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C194" s="67" t="s">
         <v>141</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C196" s="67" t="s">
         <v>89</v>
       </c>
@@ -15034,7 +15034,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C197" s="67" t="s">
         <v>91</v>
       </c>
@@ -15048,7 +15048,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C198" s="68" t="s">
         <v>22</v>
       </c>
@@ -15062,7 +15062,7 @@
         <v>4500514</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C199" s="68" t="s">
         <v>107</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>4500514</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="21" customFormat="1" ht="18.600000000000001">
+    <row r="203" spans="1:6" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="19">
         <v>8</v>
       </c>
@@ -15085,13 +15085,13 @@
         <v>142</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C205" s="18"/>
       <c r="D205" s="59" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C207" s="67" t="s">
         <v>144</v>
       </c>
@@ -15105,7 +15105,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C208" t="s">
         <v>66</v>
       </c>
@@ -15117,7 +15117,7 @@
       </c>
       <c r="F208" s="209"/>
     </row>
-    <row r="209" spans="3:6">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D209" t="s">
         <v>101</v>
       </c>
@@ -15126,7 +15126,7 @@
       </c>
       <c r="F209" s="209"/>
     </row>
-    <row r="210" spans="3:6">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D210" t="s">
         <v>104</v>
       </c>
@@ -15135,7 +15135,7 @@
       </c>
       <c r="F210" s="209"/>
     </row>
-    <row r="211" spans="3:6">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D211" t="s">
         <v>98</v>
       </c>
@@ -15144,7 +15144,7 @@
       </c>
       <c r="F211" s="209"/>
     </row>
-    <row r="212" spans="3:6">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D212" t="s">
         <v>103</v>
       </c>
@@ -15153,7 +15153,7 @@
       </c>
       <c r="F212" s="209"/>
     </row>
-    <row r="213" spans="3:6">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C213" t="s">
         <v>64</v>
       </c>
@@ -15167,7 +15167,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="214" spans="3:6">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D214" t="s">
         <v>93</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="215" spans="3:6">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D215" t="s">
         <v>94</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="216" spans="3:6">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D216" t="s">
         <v>95</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>0.80000000000000016</v>
       </c>
     </row>
-    <row r="217" spans="3:6">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D217" t="s">
         <v>106</v>
       </c>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="F217" s="209"/>
     </row>
-    <row r="218" spans="3:6">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D218" t="s">
         <v>101</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="219" spans="3:6">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D219" t="s">
         <v>97</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="220" spans="3:6">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D220" t="s">
         <v>104</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:6">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D221" t="s">
         <v>98</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="222" spans="3:6">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D222" t="s">
         <v>103</v>
       </c>
@@ -15262,7 +15262,7 @@
       </c>
       <c r="F222" s="209"/>
     </row>
-    <row r="223" spans="3:6">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C223" t="s">
         <v>65</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="224" spans="3:6">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D224" t="s">
         <v>95</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="225" spans="4:6">
+    <row r="225" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D225" t="s">
         <v>105</v>
       </c>
@@ -15298,7 +15298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="4:6">
+    <row r="226" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D226" t="s">
         <v>106</v>
       </c>
@@ -15307,7 +15307,7 @@
       </c>
       <c r="F226" s="209"/>
     </row>
-    <row r="227" spans="4:6">
+    <row r="227" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D227" t="s">
         <v>104</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="228" spans="4:6">
+    <row r="228" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D228" t="s">
         <v>103</v>
       </c>
@@ -15362,45 +15362,45 @@
   <dimension ref="A1:AK42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="20.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="14.42578125" style="68" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.140625" style="191" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" style="179" customWidth="1"/>
-    <col min="9" max="9" width="241.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="29.140625" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="34.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="2" width="32.1328125" customWidth="1"/>
+    <col min="3" max="3" width="19.86328125" customWidth="1"/>
+    <col min="4" max="4" width="16.86328125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="20.1328125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14.3984375" style="68" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.1328125" style="191" customWidth="1"/>
+    <col min="8" max="8" width="33.1328125" style="179" customWidth="1"/>
+    <col min="9" max="9" width="241.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.86328125" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="29.1328125" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="34.86328125" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="14.1328125" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="21" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="36.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="34.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="33.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="21.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="57.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="42.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="25.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="24" width="33.140625" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="255.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="34.28515625" customWidth="1"/>
-    <col min="27" max="27" width="0.85546875" customWidth="1"/>
+    <col min="15" max="15" width="36.86328125" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="34.86328125" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="33.86328125" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="21.86328125" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="57.86328125" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="42.3984375" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="25.86328125" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="24" width="33.1328125" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="255.86328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34.265625" customWidth="1"/>
+    <col min="27" max="27" width="0.86328125" customWidth="1"/>
     <col min="28" max="28" width="25" customWidth="1"/>
-    <col min="29" max="30" width="40.140625" customWidth="1"/>
-    <col min="31" max="33" width="63.42578125" customWidth="1"/>
-    <col min="34" max="34" width="15.85546875" customWidth="1"/>
-    <col min="35" max="35" width="15.140625" customWidth="1"/>
-    <col min="36" max="36" width="2.85546875" style="31" customWidth="1"/>
+    <col min="29" max="30" width="40.1328125" customWidth="1"/>
+    <col min="31" max="33" width="63.3984375" customWidth="1"/>
+    <col min="34" max="34" width="15.86328125" customWidth="1"/>
+    <col min="35" max="35" width="15.1328125" customWidth="1"/>
+    <col min="36" max="36" width="2.86328125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" s="119" t="s">
         <v>147</v>
       </c>
@@ -15513,7 +15513,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A42" si="0">CONCATENATE(C2,F2,L2)</f>
         <v>AfghanistanTBD44649</v>
@@ -15572,11 +15572,11 @@
       </c>
       <c r="AA2" s="66">
         <f t="shared" ref="AA2:AA42" ca="1" si="1">_xlfn.DAYS(TODAY(),$N2)</f>
-        <v>44827</v>
+        <v>44868</v>
       </c>
       <c r="AB2" s="66">
         <f t="shared" ref="AB2:AB42" ca="1" si="2">_xlfn.DAYS(TODAY(),$L2)</f>
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="AC2" s="12" t="str">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
@@ -15608,10 +15608,10 @@
       </c>
       <c r="AK2" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="15.75" customHeight="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Burkina Faso50000044515</v>
@@ -15692,15 +15692,15 @@
       </c>
       <c r="AA3" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="AB3" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="AC3" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="AD3" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -15731,7 +15731,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="15.75" customHeight="1">
+    <row r="4" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Chad539093844725</v>
@@ -15805,11 +15805,11 @@
       </c>
       <c r="AA4" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44827</v>
+        <v>44868</v>
       </c>
       <c r="AB4" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AC4" s="12" t="str">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
@@ -15838,10 +15838,10 @@
       </c>
       <c r="AK4" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Chad804861444613</v>
@@ -15928,15 +15928,15 @@
       </c>
       <c r="AA5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="AB5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="AC5" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="AD5" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -15967,7 +15967,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Chad804861444613</v>
@@ -16052,15 +16052,15 @@
       </c>
       <c r="AA6" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="AB6" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="AC6" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="AD6" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -16094,7 +16094,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Chad804861444613</v>
@@ -16181,15 +16181,15 @@
       </c>
       <c r="AA7" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="AB7" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="AC7" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="AD7" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -16223,7 +16223,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>DRC345802844600</v>
@@ -16310,15 +16310,15 @@
       </c>
       <c r="AA8" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="AB8" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="AC8" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="AD8" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -16349,7 +16349,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>DRC300000044721</v>
@@ -16423,11 +16423,11 @@
       </c>
       <c r="AA9" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44827</v>
+        <v>44868</v>
       </c>
       <c r="AB9" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="AC9" s="12" t="str">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
@@ -16456,10 +16456,10 @@
       </c>
       <c r="AK9" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Ethiopia440000044677</v>
@@ -16546,15 +16546,15 @@
       </c>
       <c r="AA10" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="AB10" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="AC10" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="AD10" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -16585,7 +16585,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="43.5">
+    <row r="11" spans="1:37" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Ethiopia540000044604</v>
@@ -16673,15 +16673,15 @@
       </c>
       <c r="AA11" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="AB11" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="AC11" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="AD11" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -16712,7 +16712,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Ethiopia540000044604</v>
@@ -16800,15 +16800,15 @@
       </c>
       <c r="AA12" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="AB12" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="AC12" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="AD12" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -16839,7 +16839,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="62" customFormat="1">
+    <row r="13" spans="1:37" s="62" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Ethiopia340000044677</v>
@@ -16927,15 +16927,15 @@
       </c>
       <c r="AA13" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="AB13" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="AC13" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="AD13" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -16964,7 +16964,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="159" customFormat="1" ht="14.25" customHeight="1">
+    <row r="14" spans="1:37" s="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Ethiopia440000044677</v>
@@ -17051,15 +17051,15 @@
       </c>
       <c r="AA14" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="AB14" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="AC14" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="AD14" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -17093,7 +17093,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="134" customFormat="1" ht="13.5" customHeight="1">
+    <row r="15" spans="1:37" s="134" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="62" t="str">
         <f t="shared" si="0"/>
         <v>Ethiopia800000044587</v>
@@ -17174,15 +17174,15 @@
       </c>
       <c r="AA15" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="AB15" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="AC15" s="66">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="AD15" s="66" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -17214,7 +17214,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="159" customFormat="1" ht="17.25" customHeight="1">
+    <row r="16" spans="1:37" s="159" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>GhanaTBD44637</v>
@@ -17281,11 +17281,11 @@
       </c>
       <c r="AA16" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44827</v>
+        <v>44868</v>
       </c>
       <c r="AB16" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="AC16" s="12" t="str">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
@@ -17318,10 +17318,10 @@
       </c>
       <c r="AK16" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" s="172" customFormat="1" ht="15.75" customHeight="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" s="172" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Kenya1794314.444710</v>
@@ -17408,15 +17408,15 @@
       </c>
       <c r="AA17" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="AB17" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="AC17" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="AD17" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -17445,7 +17445,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="159" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:37" s="159" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="62" t="str">
         <f t="shared" si="0"/>
         <v>LaoTBD44613</v>
@@ -17514,11 +17514,11 @@
       </c>
       <c r="AA18" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44827</v>
+        <v>44868</v>
       </c>
       <c r="AB18" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="AC18" s="66" t="str">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
@@ -17551,10 +17551,10 @@
       </c>
       <c r="AK18" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" s="172" customFormat="1" ht="12.75" customHeight="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" s="172" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Malawi2154578.6060606144729</v>
@@ -17638,19 +17638,19 @@
       </c>
       <c r="AA19" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="AB19" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AC19" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="AD19" s="12">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="AE19" s="12"/>
       <c r="AF19" s="12" t="str">
@@ -17672,10 +17672,10 @@
       </c>
       <c r="AK19" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" s="135" customFormat="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" s="135" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Malawi2154578.6060606144729</v>
@@ -17756,19 +17756,19 @@
       </c>
       <c r="AA20" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="AB20" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AC20" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="AD20" s="12">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="AE20" s="12"/>
       <c r="AF20" s="12" t="str">
@@ -17790,10 +17790,10 @@
       </c>
       <c r="AK20" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" ht="9.75" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="9.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Nigeria280000044670</v>
@@ -17881,15 +17881,15 @@
       </c>
       <c r="AA21" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AB21" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AC21" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AD21" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -17920,7 +17920,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Nigeria300000044631</v>
@@ -17982,11 +17982,11 @@
       </c>
       <c r="AA22" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44827</v>
+        <v>44868</v>
       </c>
       <c r="AB22" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="AC22" s="12" t="str">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
@@ -18018,10 +18018,10 @@
       </c>
       <c r="AK22" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" s="59" customFormat="1" ht="12" customHeight="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Nigeria610000044670</v>
@@ -18109,15 +18109,15 @@
       </c>
       <c r="AA23" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AB23" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AC23" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AD23" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -18149,7 +18149,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="62" customFormat="1">
+    <row r="24" spans="1:37" s="62" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Nigeria620000044677</v>
@@ -18232,19 +18232,19 @@
       </c>
       <c r="AA24" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="AB24" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="AC24" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="AD24" s="12">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="AE24" s="12" t="str">
         <f t="shared" si="4"/>
@@ -18269,10 +18269,10 @@
       </c>
       <c r="AK24" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" ht="43.5">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Sierra Leone152000044624</v>
@@ -18359,15 +18359,15 @@
       </c>
       <c r="AA25" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="AB25" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="AC25" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="AD25" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -18398,7 +18398,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Somalia1743000044670</v>
@@ -18482,19 +18482,19 @@
       </c>
       <c r="AA26" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AB26" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AC26" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AD26" s="12">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AE26" s="12" t="str">
         <f t="shared" si="4"/>
@@ -18518,10 +18518,10 @@
       </c>
       <c r="AK26" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Somalia1743000044670</v>
@@ -18602,19 +18602,19 @@
       </c>
       <c r="AA27" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AB27" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AC27" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AD27" s="12">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="AE27" s="12"/>
       <c r="AF27" s="12" t="str">
@@ -18635,10 +18635,10 @@
       </c>
       <c r="AK27" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" ht="12.75" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Somalia1743000044670</v>
@@ -18726,15 +18726,15 @@
       </c>
       <c r="AA28" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AB28" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AC28" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AD28" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -18762,7 +18762,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="13.35" customHeight="1">
+    <row r="29" spans="1:37" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Somalia36600044670</v>
@@ -18844,19 +18844,19 @@
       </c>
       <c r="AA29" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="AB29" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AC29" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="AD29" s="12">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AE29" s="12"/>
       <c r="AF29" s="12" t="str">
@@ -18877,10 +18877,10 @@
       </c>
       <c r="AK29" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Somalia1743000044711</v>
@@ -18968,15 +18968,15 @@
       </c>
       <c r="AA30" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="AB30" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="AC30" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="AD30" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -19007,7 +19007,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A31" s="148" t="str">
         <f t="shared" si="0"/>
         <v>South Sudan1488200044620</v>
@@ -19093,15 +19093,15 @@
       </c>
       <c r="AA31" s="156">
         <f t="shared" ca="1" si="1"/>
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="AB31" s="156">
         <f t="shared" ca="1" si="2"/>
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="AC31" s="156">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="AD31" s="156" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -19130,7 +19130,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A32" s="161" t="str">
         <f t="shared" si="0"/>
         <v>South Sudan1488200044620</v>
@@ -19216,15 +19216,15 @@
       </c>
       <c r="AA32" s="169">
         <f t="shared" ca="1" si="1"/>
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="AB32" s="169">
         <f t="shared" ca="1" si="2"/>
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="AC32" s="169">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="AD32" s="169" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -19253,7 +19253,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A33" s="148" t="str">
         <f t="shared" si="0"/>
         <v>South Sudan1488200044620</v>
@@ -19339,15 +19339,15 @@
       </c>
       <c r="AA33" s="156">
         <f t="shared" ca="1" si="1"/>
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="AB33" s="156">
         <f t="shared" ca="1" si="2"/>
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="AC33" s="156">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="AD33" s="156" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -19376,7 +19376,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A34" s="128" t="str">
         <f t="shared" si="0"/>
         <v>South Sudan1488200044620</v>
@@ -19462,15 +19462,15 @@
       </c>
       <c r="AA34" s="169">
         <f t="shared" ca="1" si="1"/>
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="AB34" s="169">
         <f t="shared" ca="1" si="2"/>
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="AC34" s="169">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="AD34" s="169" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -19499,7 +19499,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A35" s="135" t="str">
         <f t="shared" si="0"/>
         <v>South Sudan1488200044620</v>
@@ -19586,15 +19586,15 @@
       </c>
       <c r="AA35" s="133">
         <f t="shared" ca="1" si="1"/>
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="AB35" s="133">
         <f t="shared" ca="1" si="2"/>
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="AC35" s="141">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="AD35" s="141" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -19626,7 +19626,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A36" s="148" t="str">
         <f t="shared" si="0"/>
         <v>South Sudan1488200044620</v>
@@ -19714,15 +19714,15 @@
       </c>
       <c r="AA36" s="156">
         <f t="shared" ca="1" si="1"/>
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="AB36" s="156">
         <f t="shared" ca="1" si="2"/>
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="AC36" s="156">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="AD36" s="156" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -19754,7 +19754,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A37" s="128" t="str">
         <f t="shared" si="0"/>
         <v>South Sudan1488200044663</v>
@@ -19840,15 +19840,15 @@
       </c>
       <c r="AA37" s="133">
         <f t="shared" ca="1" si="1"/>
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="AB37" s="133">
         <f t="shared" ca="1" si="2"/>
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="AC37" s="133">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="AD37" s="133" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -19877,7 +19877,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Sudan21829690.973559344640</v>
@@ -19959,19 +19959,19 @@
       </c>
       <c r="AA38" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="AB38" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="AC38" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="AD38" s="12">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="AE38" s="12"/>
       <c r="AF38" s="12" t="str">
@@ -19992,10 +19992,10 @@
       </c>
       <c r="AK38" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:37">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Sudan510000044648</v>
@@ -20080,15 +20080,15 @@
       </c>
       <c r="AA39" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="AB39" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="AC39" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="AD39" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -20119,7 +20119,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Sudan21829690.973559344640</v>
@@ -20195,11 +20195,11 @@
       </c>
       <c r="AA40" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44827</v>
+        <v>44868</v>
       </c>
       <c r="AB40" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="AC40" s="12" t="str">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
@@ -20207,7 +20207,7 @@
       </c>
       <c r="AD40" s="12">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>44827</v>
+        <v>44868</v>
       </c>
       <c r="AE40" s="12"/>
       <c r="AF40" s="12" t="str">
@@ -20228,10 +20228,10 @@
       </c>
       <c r="AK40" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Sudan21829690.973559344650</v>
@@ -20311,11 +20311,11 @@
       </c>
       <c r="AA41" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44827</v>
+        <v>44868</v>
       </c>
       <c r="AB41" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="AC41" s="12" t="str">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
@@ -20323,7 +20323,7 @@
       </c>
       <c r="AD41" s="12">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="AE41" s="12" t="str">
         <f>IF(V41="","-",_xlfn.DAYS(V41,N41))</f>
@@ -20347,10 +20347,10 @@
       </c>
       <c r="AK41" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37" ht="29.1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A42" s="62" t="str">
         <f t="shared" si="0"/>
         <v>Yemen480000044621</v>
@@ -20420,11 +20420,11 @@
       </c>
       <c r="AA42" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44827</v>
+        <v>44868</v>
       </c>
       <c r="AB42" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="AC42" s="66" t="str">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="AD42" s="66">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>44827</v>
+        <v>44868</v>
       </c>
       <c r="AE42" s="12" t="str">
         <f>IF(V42="","-",_xlfn.DAYS(V42,N42))</f>
@@ -20457,7 +20457,7 @@
       </c>
       <c r="AK42" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>206</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -20516,16 +20516,16 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="69.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="1" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" customWidth="1"/>
+    <col min="4" max="4" width="69.86328125" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" customWidth="1"/>
     <col min="6" max="6" width="160" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="57" t="s">
         <v>304</v>
       </c>
@@ -20545,7 +20545,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="48.75" customHeight="1">
+    <row r="2" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -20609,7 +20609,7 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20623,16 +20623,16 @@
       <selection activeCell="D7" sqref="D7:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.1328125" customWidth="1"/>
+    <col min="7" max="7" width="40.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1328125" customWidth="1"/>
+    <col min="9" max="9" width="14.86328125" customWidth="1"/>
+    <col min="11" max="11" width="15.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="21" customFormat="1" ht="18.600000000000001">
+    <row r="1" spans="1:11" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="19">
         <v>1</v>
       </c>
@@ -20641,17 +20641,17 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C2" s="115" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C3" s="114" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C5" s="125"/>
       <c r="D5" s="127" t="s">
         <v>314</v>
@@ -20678,7 +20678,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C6" s="126"/>
       <c r="D6" s="126"/>
       <c r="E6" s="126"/>
@@ -20689,7 +20689,7 @@
       <c r="J6" s="126"/>
       <c r="K6" s="126"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C7" s="125" t="s">
         <v>82</v>
       </c>
@@ -20713,7 +20713,7 @@
       <c r="J7" s="112"/>
       <c r="K7" s="112"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C8" s="125" t="s">
         <v>65</v>
       </c>
@@ -20738,7 +20738,7 @@
         <v>9157000</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C9" s="125" t="s">
         <v>66</v>
       </c>
@@ -20763,7 +20763,7 @@
         <v>16561000</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C10" s="125" t="s">
         <v>64</v>
       </c>
@@ -20788,7 +20788,7 @@
         <v>26485288.759999998</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C11" s="125" t="s">
         <v>69</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C12" s="125" t="s">
         <v>322</v>
       </c>
@@ -20835,7 +20835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="21" customFormat="1" ht="18.600000000000001">
+    <row r="17" spans="1:11" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="19">
         <v>2</v>
       </c>
@@ -20844,7 +20844,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C20" s="125"/>
       <c r="D20" s="127" t="s">
         <v>314</v>
@@ -20871,7 +20871,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C21" s="126"/>
       <c r="D21" s="126"/>
       <c r="E21" s="126"/>
@@ -20882,7 +20882,7 @@
       <c r="J21" s="126"/>
       <c r="K21" s="126"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C22" s="125" t="s">
         <v>82</v>
       </c>
@@ -20906,7 +20906,7 @@
       <c r="J22" s="112"/>
       <c r="K22" s="112"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C23" s="125" t="s">
         <v>65</v>
       </c>
@@ -20931,7 +20931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C24" s="125" t="s">
         <v>66</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>5763000</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C25" s="125" t="s">
         <v>64</v>
       </c>
@@ -20981,7 +20981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C26" s="125" t="s">
         <v>69</v>
       </c>
@@ -21006,7 +21006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C27" s="125" t="s">
         <v>322</v>
       </c>
@@ -21045,7 +21045,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21284,13 +21284,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A915D1A-18AD-4B30-BF03-467F55554A05}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A915D1A-18AD-4B30-BF03-467F55554A05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5277850E-7C3F-4765-B404-56867E9CDD6E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5277850E-7C3F-4765-B404-56867E9CDD6E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b370a6fa-a798-42e0-969d-19c284d8683f"/>
+    <ds:schemaRef ds:uri="62ca1376-8bea-4949-825e-fec085c3924e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C313A188-427D-4CF3-BDF7-2C5D4A5374CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C313A188-427D-4CF3-BDF7-2C5D4A5374CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/input/base_financing_urgent.xlsx
+++ b/data/input/base_financing_urgent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25718"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/panlilioj_who_int/Documents/covid19_vaccination_analysis/data/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/COVID19VaccineDeliveryFacility-DataAnalyticsandMonitoring/Shared Documents/Data, Analytics, and Monitoring/02 Analysis/03 CCAP data files/2022/08 - August/220812/_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{23388CD4-9F6B-44DF-B82A-58EE6629CC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45DF387E-F222-478B-B0E7-B38980D91B4C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23388CD4-9F6B-44DF-B82A-58EE6629CC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="4" xr2:uid="{09ECBDA5-35BF-4F6F-83FF-9832054A69E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="4" activeTab="4" xr2:uid="{09ECBDA5-35BF-4F6F-83FF-9832054A69E9}"/>
   </bookViews>
   <sheets>
     <sheet name="INTRO" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'SCM &amp; DO contact list'!$A$1:$G$161</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="19881" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2228,15 +2228,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2860,14 +2860,14 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <protection locked="0"/>
@@ -2876,7 +2876,7 @@
   </cellStyleXfs>
   <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2911,20 +2911,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="12" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="12" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="12" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2932,8 +2932,8 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2941,7 +2941,7 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2953,8 +2953,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2981,7 +2981,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="10" fillId="9" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -2995,15 +2995,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="17" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="17" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="12" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3029,7 +3029,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3056,7 +3056,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3069,7 +3069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3089,7 +3089,7 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3126,7 +3126,7 @@
     <xf numFmtId="14" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3149,59 +3149,59 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="21" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="21" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3213,22 +3213,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="21" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="21" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -3392,7 +3392,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3402,16 +3402,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -3570,13 +3570,13 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="left" relativeIndent="-1"/>
     </dxf>
     <dxf>
@@ -3599,7 +3599,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
@@ -3607,133 +3607,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3773,6 +3646,133 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3981,7 +3981,7 @@
     <cacheField name="Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call" numFmtId="0">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-12-30T00:00:00" maxDate="2022-06-25T00:00:00"/>
     </cacheField>
-    <cacheField name="Amount to be funded" numFmtId="168">
+    <cacheField name="Amount to be funded" numFmtId="166">
       <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="14629690.973559324"/>
     </cacheField>
     <cacheField name="Allocation of funds internally approved by the funder (yes / no)" numFmtId="0">
@@ -5621,7 +5621,357 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B06D34D-E967-4F07-BE8F-7D9DBCF93C3B}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3458E9B2-3DAF-408A-A618-E46B8F8A1534}" name="PivotTable9" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C21:S28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="36">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="16">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="8">
+    <format dxfId="53">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="54">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="56">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="24" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="24" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="24" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="59">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="60">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2347BD2D-EC6A-4590-96DC-7E56E434433E}" name="PivotTable5" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C163:G166" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="36">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="16">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="35">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B06D34D-E967-4F07-BE8F-7D9DBCF93C3B}" name="PivotTable6" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C154:G157" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="36">
     <pivotField showAll="0"/>
@@ -5733,14 +6083,14 @@
     <dataField name="Count of Amount tracked through this row" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="31">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -5756,9 +6106,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F89165E-9391-45E5-9D20-C20D54DB34C0}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C187:F190" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F74D45C-E5D3-4038-ADBF-4D28420CD0C9}" name="PivotTable8" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C196:F199" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="36">
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
@@ -5922,13 +6272,13 @@
     <pageField fld="7" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Count of Amount tracked through this row" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="55">
+    <format dxfId="51">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
@@ -5948,8 +6298,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F0A37B7-B499-4C24-98E9-ED9369C94850}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F0A37B7-B499-4C24-98E9-ED9369C94850}" name="PivotTable3" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C105:S112" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="36">
     <pivotField showAll="0"/>
@@ -6109,340 +6459,14 @@
     <dataField name="Sum of Amount tracked through this row" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="57">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C95694D5-8175-4B48-8A9A-D33DEB874BC7}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C90:S97" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="36">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="16">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="16">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Amount tracked through this row" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="33">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="32">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AB956CA-8B6A-4AE4-A7C2-B601FA06A7AC}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C138:G143" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="36">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="16">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="35">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="34">
+    <format dxfId="50">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -6459,405 +6483,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D75FFD55-5582-4181-BA17-1C4A3DEEF967}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C36:S43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="36">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="16">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="16">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Amount tracked through this row" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="36">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3458E9B2-3DAF-408A-A618-E46B8F8A1534}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C21:S28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="36">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="16">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="16">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="8">
-    <format dxfId="45">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="44">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="43">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="42">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="24" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="41">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="24" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="40">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="24" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="39">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="38">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F43C6DA9-A35C-4046-ADBB-B82E9DEBFE1C}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F43C6DA9-A35C-4046-ADBB-B82E9DEBFE1C}" name="PivotTable11" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="C207:F228" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="36">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -7007,14 +6633,14 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="1" baseItem="4" numFmtId="168"/>
+    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="1" baseItem="4" numFmtId="166"/>
     <dataField name="Average of Utilization rate" fld="22" subtotal="average" baseField="1" baseItem="4" numFmtId="9"/>
   </dataFields>
   <formats count="2">
     <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="48">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7069,336 +6695,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2347BD2D-EC6A-4590-96DC-7E56E434433E}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C163:G166" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="36">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="16">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="49">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="48">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F74D45C-E5D3-4038-ADBF-4D28420CD0C9}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C196:F199" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="36">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="16">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="64">
-        <item h="1" x="9"/>
-        <item h="1" x="19"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" x="4"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item x="1"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" x="18"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" x="23"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" x="33"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" x="25"/>
-        <item h="1" x="15"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" x="29"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" x="26"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" x="22"/>
-        <item h="1" x="17"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" x="16"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" x="35"/>
-        <item h="1" x="10"/>
-        <item h="1" x="30"/>
-        <item h="1" x="31"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" x="24"/>
-        <item h="1" x="37"/>
-        <item h="1" x="28"/>
-        <item h="1" x="34"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" x="36"/>
-        <item h="1" x="27"/>
-        <item h="1" x="32"/>
-        <item h="1" x="5"/>
-        <item h="1" x="8"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="7" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="51">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="50">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="7" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{424D518F-E944-4532-8FA4-46573B5E3DD0}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{424D518F-E944-4532-8FA4-46573B5E3DD0}" name="PivotTable2" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C124:S131" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="36">
     <pivotField showAll="0"/>
@@ -7558,14 +6856,716 @@
     <dataField name="Count of Amount tracked through this row" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="53">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="46">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AB956CA-8B6A-4AE4-A7C2-B601FA06A7AC}" name="PivotTable4" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C138:G143" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="36">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="16">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount tracked through this row" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="43">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="44">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F89165E-9391-45E5-9D20-C20D54DB34C0}" name="PivotTable7" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C187:F190" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="36">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="16">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="64">
+        <item h="1" x="9"/>
+        <item h="1" x="19"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" x="4"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item x="1"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" x="18"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" x="23"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" x="33"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" x="25"/>
+        <item h="1" x="15"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" x="29"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" x="26"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" x="22"/>
+        <item h="1" x="17"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" x="16"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" x="35"/>
+        <item h="1" x="10"/>
+        <item h="1" x="30"/>
+        <item h="1" x="31"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" x="24"/>
+        <item h="1" x="37"/>
+        <item h="1" x="28"/>
+        <item h="1" x="34"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" x="36"/>
+        <item h="1" x="27"/>
+        <item h="1" x="32"/>
+        <item h="1" x="5"/>
+        <item h="1" x="8"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Amount tracked through this row" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="41">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="42">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C95694D5-8175-4B48-8A9A-D33DEB874BC7}" name="PivotTable1" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C90:S97" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="36">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="16">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Amount tracked through this row" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="39">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D75FFD55-5582-4181-BA17-1C4A3DEEF967}" name="PivotTable10" cacheId="19881" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C36:S43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="36">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="16">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Amount tracked through this row" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7582,10 +7582,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8CD85316-1962-48CB-B11E-56F26A3CB437}" name="Table7" displayName="Table7" ref="B53:U59" totalsRowShown="0" headerRowDxfId="60" tableBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8CD85316-1962-48CB-B11E-56F26A3CB437}" name="Table7" displayName="Table7" ref="B53:U59" totalsRowShown="0" headerRowDxfId="32" tableBorderDxfId="31">
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{E8E3A216-192D-4D9E-BBAE-B1D42BAB296C}" name="Description of tabs"/>
-    <tableColumn id="2" xr3:uid="{89251F53-2BAF-423C-9488-A694EB0C8FF0}" name="Column1" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{89251F53-2BAF-423C-9488-A694EB0C8FF0}" name="Column1" dataDxfId="30"/>
     <tableColumn id="3" xr3:uid="{ED334533-5FC0-4D35-8699-5B8B0A2E5750}" name="Column2"/>
     <tableColumn id="4" xr3:uid="{186507F2-39A2-493D-84A5-C825A173498F}" name="Column3"/>
     <tableColumn id="5" xr3:uid="{5B637BC1-57FE-4C0B-93C2-47A99E7B0E0E}" name="Column4"/>
@@ -7722,7 +7722,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12E7248E-6485-4C21-94AC-7B82A60F972D}" name="Table3" displayName="Table3" ref="A1:F3" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12E7248E-6485-4C21-94AC-7B82A60F972D}" name="Table3" displayName="Table3" ref="A1:F3" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
   <autoFilter ref="A1:F3" xr:uid="{12E7248E-6485-4C21-94AC-7B82A60F972D}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{159D67A2-96F3-4D1A-8732-896C75B0A54D}" name="Country"/>
@@ -8063,17 +8063,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="46.1328125" customWidth="1"/>
-    <col min="3" max="3" width="30.86328125" customWidth="1"/>
-    <col min="4" max="10" width="10.3984375" customWidth="1"/>
-    <col min="11" max="11" width="11.86328125" customWidth="1"/>
-    <col min="12" max="20" width="11.3984375" customWidth="1"/>
-    <col min="21" max="21" width="14.3984375" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="23.65" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:21" ht="24" thickBot="1">
       <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
@@ -8097,7 +8097,7 @@
       <c r="T2" s="54"/>
       <c r="U2" s="54"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:21">
       <c r="B4" s="49" t="s">
         <v>1</v>
       </c>
@@ -8115,7 +8115,7 @@
       <c r="J4" s="50"/>
       <c r="K4" s="51"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:21">
       <c r="B6" s="98" t="s">
         <v>3</v>
       </c>
@@ -8131,7 +8131,7 @@
       <c r="J6" s="99"/>
       <c r="K6" s="100"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:21">
       <c r="B7" s="101" t="s">
         <v>5</v>
       </c>
@@ -8140,7 +8140,7 @@
       </c>
       <c r="K7" s="102"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:21">
       <c r="B8" s="101" t="s">
         <v>7</v>
       </c>
@@ -8152,133 +8152,133 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:21">
       <c r="B9" s="101" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="102"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:21">
       <c r="B10" s="104"/>
       <c r="K10" s="102"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:21">
       <c r="B11" s="104"/>
       <c r="K11" s="102"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:21">
       <c r="B12" s="104"/>
       <c r="K12" s="102"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:21">
       <c r="B13" s="104"/>
       <c r="K13" s="102"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:21">
       <c r="B14" s="104"/>
       <c r="K14" s="102"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:21">
       <c r="B15" s="104"/>
       <c r="K15" s="102"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:21">
       <c r="B16" s="104"/>
       <c r="K16" s="102"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11">
       <c r="B17" s="104"/>
       <c r="K17" s="102"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11">
       <c r="B18" s="104"/>
       <c r="K18" s="102"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11">
       <c r="B19" s="104"/>
       <c r="K19" s="102"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11">
       <c r="B20" s="104"/>
       <c r="K20" s="102"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11">
       <c r="B21" s="104"/>
       <c r="K21" s="102"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11">
       <c r="B22" s="104"/>
       <c r="K22" s="102"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:11">
       <c r="B23" s="104"/>
       <c r="K23" s="102"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11">
       <c r="B24" s="104"/>
       <c r="K24" s="102"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11">
       <c r="B25" s="104"/>
       <c r="K25" s="102"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11">
       <c r="B26" s="104"/>
       <c r="K26" s="102"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11">
       <c r="B27" s="104"/>
       <c r="K27" s="102"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:11">
       <c r="B28" s="104"/>
       <c r="K28" s="102"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:11">
       <c r="B29" s="104"/>
       <c r="K29" s="102"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:11">
       <c r="B30" s="104"/>
       <c r="K30" s="102"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11">
       <c r="B31" s="104"/>
       <c r="K31" s="102"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:11">
       <c r="B32" s="104"/>
       <c r="K32" s="102"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:21">
       <c r="B33" s="104"/>
       <c r="K33" s="102"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:21">
       <c r="B34" s="104"/>
       <c r="K34" s="102"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:21">
       <c r="B35" s="104"/>
       <c r="K35" s="102"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:21">
       <c r="B36" s="104"/>
       <c r="K36" s="102"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:21">
       <c r="B37" s="104"/>
       <c r="K37" s="102"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:21">
       <c r="B38" s="104"/>
       <c r="K38" s="102"/>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:21">
       <c r="B39" s="104"/>
       <c r="K39" s="102"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:21">
       <c r="B40" s="105"/>
       <c r="C40" s="106"/>
       <c r="D40" s="106"/>
@@ -8290,7 +8290,7 @@
       <c r="J40" s="106"/>
       <c r="K40" s="107"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:21">
       <c r="B42" s="49" t="s">
         <v>11</v>
       </c>
@@ -8314,7 +8314,7 @@
       <c r="T42" s="50"/>
       <c r="U42" s="51"/>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:21">
       <c r="B43" s="24" t="s">
         <v>12</v>
       </c>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="U43" s="25"/>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:21">
       <c r="B44" s="24" t="s">
         <v>14</v>
       </c>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="U44" s="25"/>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:21">
       <c r="B45" s="24" t="s">
         <v>16</v>
       </c>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="U45" s="25"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:21">
       <c r="B46" s="24" t="s">
         <v>18</v>
       </c>
@@ -8350,7 +8350,7 @@
       </c>
       <c r="U46" s="25"/>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:21">
       <c r="B47" s="24" t="s">
         <v>20</v>
       </c>
@@ -8359,7 +8359,7 @@
       </c>
       <c r="U47" s="25"/>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:21">
       <c r="B48" s="24" t="s">
         <v>22</v>
       </c>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="U48" s="25"/>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:21">
       <c r="B49" s="26" t="s">
         <v>24</v>
       </c>
@@ -8394,7 +8394,7 @@
       <c r="T49" s="27"/>
       <c r="U49" s="28"/>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:21">
       <c r="B51" s="49" t="s">
         <v>26</v>
       </c>
@@ -8418,11 +8418,11 @@
       <c r="T51" s="50"/>
       <c r="U51" s="51"/>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:21">
       <c r="B52" s="108"/>
       <c r="U52" s="25"/>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:21">
       <c r="B53" s="121" t="s">
         <v>27</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:21" ht="43.5">
       <c r="B54" t="s">
         <v>47</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:21" ht="29.1">
       <c r="B55" t="s">
         <v>50</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="2:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:21" ht="29.1">
       <c r="B56" t="s">
         <v>53</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:21" ht="29.1">
       <c r="B57" t="s">
         <v>56</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>Extract from Funding tracker - for WHO visibility</v>
       </c>
     </row>
-    <row r="58" spans="2:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:21" ht="29.1">
       <c r="B58" t="s">
         <v>58</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="2:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:21" ht="43.5">
       <c r="B59" s="27" t="s">
         <v>60</v>
       </c>
@@ -8589,19 +8589,19 @@
       <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="23.1328125" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" customWidth="1"/>
-    <col min="3" max="3" width="15.1328125" customWidth="1"/>
-    <col min="4" max="4" width="33.3984375" customWidth="1"/>
-    <col min="5" max="5" width="23.86328125" customWidth="1"/>
-    <col min="6" max="6" width="40.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.86328125" customWidth="1"/>
-    <col min="8" max="8" width="37.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>324</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>102</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>337</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>341</v>
       </c>
@@ -8687,7 +8687,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>346</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>347</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
         <v>350</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
         <v>353</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
         <v>356</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
         <v>357</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
         <v>360</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
         <v>361</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
         <v>362</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
         <v>365</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
         <v>370</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
         <v>371</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="7" t="s">
         <v>372</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="5" t="s">
         <v>377</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="7" t="s">
         <v>380</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="5" t="s">
         <v>383</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
         <v>386</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="5" t="s">
         <v>387</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="7" t="s">
         <v>390</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="5" t="s">
         <v>391</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" s="7" t="s">
         <v>92</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26" s="5" t="s">
         <v>395</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8">
       <c r="A27" s="7" t="s">
         <v>398</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8">
       <c r="A28" s="5" t="s">
         <v>401</v>
       </c>
@@ -9108,7 +9108,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29" s="7" t="s">
         <v>402</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" s="5" t="s">
         <v>405</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="7" t="s">
         <v>408</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="5" t="s">
         <v>409</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="A33" s="7" t="s">
         <v>93</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8">
       <c r="A34" s="5" t="s">
         <v>416</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8">
       <c r="A35" s="7" t="s">
         <v>417</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="A36" s="5" t="s">
         <v>420</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8">
       <c r="A37" s="7" t="s">
         <v>421</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8">
       <c r="A38" s="7" t="s">
         <v>424</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39" s="5" t="s">
         <v>425</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="7" t="s">
         <v>426</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="7" t="s">
         <v>427</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="5" t="s">
         <v>430</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="7" t="s">
         <v>433</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="5" t="s">
         <v>434</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="5" t="s">
         <v>94</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="5" t="s">
         <v>439</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47" s="7" t="s">
         <v>440</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="5" t="s">
         <v>441</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8">
       <c r="A49" s="7" t="s">
         <v>444</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8">
       <c r="A50" s="5" t="s">
         <v>445</v>
       </c>
@@ -9518,7 +9518,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8">
       <c r="A51" s="7" t="s">
         <v>446</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="5" t="s">
         <v>95</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8">
       <c r="A53" s="7" t="s">
         <v>451</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8">
       <c r="A54" s="5" t="s">
         <v>454</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8">
       <c r="A55" s="7" t="s">
         <v>455</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8">
       <c r="A56" s="5" t="s">
         <v>458</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8">
       <c r="A57" s="7" t="s">
         <v>100</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8">
       <c r="A58" s="5" t="s">
         <v>462</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8">
       <c r="A59" s="7" t="s">
         <v>463</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8">
       <c r="A60" s="5" t="s">
         <v>464</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8">
       <c r="A61" s="7" t="s">
         <v>465</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="5" t="s">
         <v>466</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="7" t="s">
         <v>467</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="5" t="s">
         <v>470</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7">
       <c r="A65" s="7" t="s">
         <v>471</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7">
       <c r="A66" s="5" t="s">
         <v>474</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7">
       <c r="A67" s="7" t="s">
         <v>475</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7">
       <c r="A68" s="5" t="s">
         <v>476</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7">
       <c r="A69" s="7" t="s">
         <v>477</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7">
       <c r="A70" s="5" t="s">
         <v>478</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7">
       <c r="A71" s="7" t="s">
         <v>479</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7">
       <c r="A72" s="5" t="s">
         <v>482</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7">
       <c r="A73" s="7" t="s">
         <v>105</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7">
       <c r="A74" s="5" t="s">
         <v>484</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7">
       <c r="A75" s="7" t="s">
         <v>485</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7">
       <c r="A76" s="5" t="s">
         <v>486</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7">
       <c r="A77" s="7" t="s">
         <v>487</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7">
       <c r="A78" s="5" t="s">
         <v>96</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7">
       <c r="A79" s="7" t="s">
         <v>492</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7">
       <c r="A80" s="5" t="s">
         <v>493</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6">
       <c r="A81" s="7" t="s">
         <v>496</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6">
       <c r="A82" s="5" t="s">
         <v>497</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6">
       <c r="A83" s="7" t="s">
         <v>498</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6">
       <c r="A84" s="5" t="s">
         <v>106</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6">
       <c r="A85" s="7" t="s">
         <v>499</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6">
       <c r="A86" s="5" t="s">
         <v>500</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6">
       <c r="A87" s="7" t="s">
         <v>501</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6">
       <c r="A88" s="5" t="s">
         <v>502</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6">
       <c r="A89" s="7" t="s">
         <v>503</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6">
       <c r="A90" s="5" t="s">
         <v>504</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6">
       <c r="A91" s="7" t="s">
         <v>505</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6">
       <c r="A92" s="5" t="s">
         <v>506</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6">
       <c r="A93" s="7" t="s">
         <v>507</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6">
       <c r="A94" s="5" t="s">
         <v>510</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6">
       <c r="A95" s="7" t="s">
         <v>513</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6">
       <c r="A96" s="5" t="s">
         <v>514</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8">
       <c r="A97" s="7" t="s">
         <v>515</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8">
       <c r="A98" s="5" t="s">
         <v>516</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8">
       <c r="A99" s="7" t="s">
         <v>517</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8">
       <c r="A100" s="5" t="s">
         <v>519</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8">
       <c r="A101" s="7" t="s">
         <v>520</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8">
       <c r="A102" s="5" t="s">
         <v>521</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8">
       <c r="A103" s="7" t="s">
         <v>522</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8">
       <c r="A104" s="5" t="s">
         <v>523</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8">
       <c r="A105" s="7" t="s">
         <v>524</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8">
       <c r="A106" s="5" t="s">
         <v>525</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8">
       <c r="A107" s="7" t="s">
         <v>101</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8">
       <c r="A108" s="5" t="s">
         <v>528</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8">
       <c r="A109" s="7" t="s">
         <v>529</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8">
       <c r="A110" s="5" t="s">
         <v>530</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8">
       <c r="A111" s="7" t="s">
         <v>533</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8">
       <c r="A112" s="5" t="s">
         <v>534</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8">
       <c r="A113" s="11" t="s">
         <v>535</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8">
       <c r="A114" s="5" t="s">
         <v>538</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8">
       <c r="A115" s="7" t="s">
         <v>539</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8">
       <c r="A116" s="5" t="s">
         <v>540</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8">
       <c r="A117" s="7" t="s">
         <v>541</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8">
       <c r="A118" s="5" t="s">
         <v>542</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8">
       <c r="A119" s="7" t="s">
         <v>543</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8">
       <c r="A120" s="5" t="s">
         <v>544</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8">
       <c r="A121" s="7" t="s">
         <v>545</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8">
       <c r="A122" s="5" t="s">
         <v>546</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8">
       <c r="A123" s="7" t="s">
         <v>548</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8">
       <c r="A124" s="5" t="s">
         <v>549</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8">
       <c r="A125" s="7" t="s">
         <v>550</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8">
       <c r="A126" s="5" t="s">
         <v>551</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:8">
       <c r="A127" s="7" t="s">
         <v>97</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:8">
       <c r="A128" s="7" t="s">
         <v>552</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8">
       <c r="A129" s="5" t="s">
         <v>553</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8">
       <c r="A130" s="7" t="s">
         <v>104</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8">
       <c r="A131" s="5" t="s">
         <v>558</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8">
       <c r="A132" s="7" t="s">
         <v>561</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8">
       <c r="A133" s="5" t="s">
         <v>98</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8">
       <c r="A134" s="7" t="s">
         <v>564</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:8">
       <c r="A135" s="5" t="s">
         <v>103</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8">
       <c r="A136" s="7" t="s">
         <v>567</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8">
       <c r="A137" s="5" t="s">
         <v>568</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8">
       <c r="A138" s="7" t="s">
         <v>569</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8">
       <c r="A139" s="5" t="s">
         <v>570</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:8">
       <c r="A140" s="7" t="s">
         <v>571</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8">
       <c r="A141" s="5" t="s">
         <v>572</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:8">
       <c r="A142" s="7" t="s">
         <v>573</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:8">
       <c r="A143" s="5" t="s">
         <v>574</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8">
       <c r="A144" s="7" t="s">
         <v>575</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6">
       <c r="A145" s="5" t="s">
         <v>576</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6">
       <c r="A146" s="7" t="s">
         <v>577</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6">
       <c r="A147" s="5" t="s">
         <v>578</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6">
       <c r="A148" s="7" t="s">
         <v>579</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6">
       <c r="A149" s="5" t="s">
         <v>580</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6">
       <c r="A150" s="7" t="s">
         <v>581</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6">
       <c r="A151" s="5" t="s">
         <v>582</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6">
       <c r="A152" s="7" t="s">
         <v>583</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6">
       <c r="A153" s="5" t="s">
         <v>584</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6">
       <c r="A154" s="7" t="s">
         <v>585</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6">
       <c r="A155" s="5" t="s">
         <v>586</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6">
       <c r="A156" s="7" t="s">
         <v>587</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6">
       <c r="A157" s="5" t="s">
         <v>588</v>
       </c>
@@ -11545,7 +11545,7 @@
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6">
       <c r="A158" s="7" t="s">
         <v>590</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6">
       <c r="A159" s="5" t="s">
         <v>99</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6">
       <c r="A160" s="7" t="s">
         <v>591</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6">
       <c r="A161" s="5" t="s">
         <v>592</v>
       </c>
@@ -11755,78 +11755,78 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="19.1328125" customWidth="1"/>
-    <col min="3" max="3" width="42.1328125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3">
       <c r="B17" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="16"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3" ht="29.25" customHeight="1">
       <c r="B19" t="s">
         <v>63</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
         <v>64</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:3">
       <c r="B21" t="s">
         <v>66</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3">
       <c r="B22" t="s">
         <v>65</v>
       </c>
@@ -11858,13 +11858,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3">
       <c r="B25" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3">
       <c r="B26" t="s">
         <v>76</v>
       </c>
@@ -11891,7 +11891,7 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11905,33 +11905,33 @@
       <selection activeCell="E224" sqref="E224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.86328125" customWidth="1"/>
-    <col min="3" max="3" width="40.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1328125" customWidth="1"/>
-    <col min="8" max="8" width="3.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="18.600000000000001">
       <c r="A1" s="19">
         <v>1</v>
       </c>
@@ -11940,19 +11940,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:9" ht="21">
       <c r="C3" s="71" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="59"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" ht="15.6">
       <c r="C4" s="111" t="s">
         <v>79</v>
       </c>
       <c r="D4" s="59"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9">
       <c r="C5" s="29" t="s">
         <v>80</v>
       </c>
@@ -11965,7 +11965,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9">
       <c r="C6" s="30"/>
       <c r="D6" s="32" t="s">
         <v>82</v>
@@ -11986,7 +11986,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9">
       <c r="C7" s="24" t="s">
         <v>12</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9">
       <c r="C8" s="24" t="s">
         <v>14</v>
       </c>
@@ -12029,7 +12029,7 @@
       <c r="H8" s="110"/>
       <c r="I8" s="117"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9">
       <c r="C9" s="24" t="s">
         <v>16</v>
       </c>
@@ -12043,7 +12043,7 @@
       <c r="H9" s="110"/>
       <c r="I9" s="117"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9">
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9">
       <c r="C11" s="24" t="s">
         <v>83</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9">
       <c r="C12" s="24" t="s">
         <v>84</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9">
       <c r="C13" s="26" t="s">
         <v>22</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9">
       <c r="C14" s="48" t="s">
         <v>24</v>
       </c>
@@ -12173,26 +12173,26 @@
       <c r="H14" s="46"/>
       <c r="I14" s="47"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9">
       <c r="D15" s="72"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="73"/>
       <c r="H15" s="73"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9">
       <c r="D16" s="72"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="73"/>
       <c r="H16" s="73"/>
     </row>
-    <row r="17" spans="3:19" ht="21" x14ac:dyDescent="0.65">
+    <row r="17" spans="3:19" ht="21">
       <c r="C17" s="71" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:19">
       <c r="C19" s="67" t="s">
         <v>86</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:19">
       <c r="C21" s="67" t="s">
         <v>89</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:19">
       <c r="C22" s="67" t="s">
         <v>91</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:19">
       <c r="C23" s="143" t="s">
         <v>22</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>52203288.759999998</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:19">
       <c r="C24" s="143" t="s">
         <v>14</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>20629690.973559324</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:19">
       <c r="C25" s="143" t="s">
         <v>24</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:19">
       <c r="C26" s="143" t="s">
         <v>84</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>23614486</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:19">
       <c r="C27" s="143" t="s">
         <v>18</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>2154578.606060606</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:19">
       <c r="C28" s="68" t="s">
         <v>107</v>
       </c>
@@ -12478,19 +12478,19 @@
         <v>98827044.339619935</v>
       </c>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:19">
       <c r="D31" s="72"/>
       <c r="E31" s="73"/>
       <c r="F31" s="73"/>
       <c r="G31" s="73"/>
       <c r="H31" s="73"/>
     </row>
-    <row r="32" spans="3:19" ht="21" x14ac:dyDescent="0.65">
+    <row r="32" spans="3:19" ht="21">
       <c r="C32" s="71" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:19">
       <c r="C34" s="67" t="s">
         <v>86</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:19">
       <c r="C36" s="67" t="s">
         <v>109</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:19">
       <c r="C37" s="67" t="s">
         <v>91</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:19">
       <c r="C38" s="68" t="s">
         <v>22</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:19">
       <c r="C39" s="68" t="s">
         <v>14</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:19">
       <c r="C40" s="68" t="s">
         <v>24</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:19">
       <c r="C41" s="68" t="s">
         <v>84</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:19">
       <c r="C42" s="68" t="s">
         <v>18</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:19">
       <c r="C43" s="68" t="s">
         <v>107</v>
       </c>
@@ -12776,14 +12776,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:19">
       <c r="D46" s="72"/>
       <c r="E46" s="73"/>
       <c r="F46" s="73"/>
       <c r="G46" s="73"/>
       <c r="H46" s="73"/>
     </row>
-    <row r="47" spans="1:19" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:19" s="21" customFormat="1" ht="18.600000000000001">
       <c r="A47" s="19">
         <v>2</v>
       </c>
@@ -12792,13 +12792,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="49" spans="3:15" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:19" s="20" customFormat="1" ht="18.600000000000001"/>
+    <row r="49" spans="3:15" s="20" customFormat="1" ht="21">
       <c r="C49" s="71" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="3:15" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="3:15" s="20" customFormat="1" ht="18.600000000000001">
       <c r="C50" s="111" t="s">
         <v>112</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="3:15" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="3:15" s="20" customFormat="1" ht="51.75" customHeight="1">
       <c r="C51" s="93" t="s">
         <v>63</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="3:15" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="3:15" s="20" customFormat="1" ht="18.600000000000001">
       <c r="C52" s="79" t="s">
         <v>66</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>31.142857142857142</v>
       </c>
     </row>
-    <row r="53" spans="3:15" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:15" s="20" customFormat="1" ht="18.600000000000001">
       <c r="C53" s="80" t="s">
         <v>64</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>5.4615384615384617</v>
       </c>
     </row>
-    <row r="54" spans="3:15" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="3:15" s="20" customFormat="1" ht="18.600000000000001">
       <c r="C54" s="82" t="s">
         <v>65</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="55" spans="3:15" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:15" s="20" customFormat="1" ht="18.600000000000001">
       <c r="C55" s="85" t="s">
         <v>82</v>
       </c>
@@ -12931,13 +12931,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="3:15" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="57" spans="3:15" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+    <row r="56" spans="3:15" s="20" customFormat="1" ht="18.600000000000001"/>
+    <row r="57" spans="3:15" s="20" customFormat="1" ht="21">
       <c r="C57" s="71" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:15">
       <c r="C58" s="31" t="s">
         <v>121</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:15">
       <c r="C59" s="93" t="s">
         <v>63</v>
       </c>
@@ -12997,7 +12997,7 @@
       <c r="N59" s="22"/>
       <c r="O59" s="23"/>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:15">
       <c r="C60" s="75"/>
       <c r="D60" s="76">
         <v>44562</v>
@@ -13036,7 +13036,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:15">
       <c r="C61" s="79" t="s">
         <v>66</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:15">
       <c r="C62" s="80" t="s">
         <v>64</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:15">
       <c r="C63" s="82" t="s">
         <v>65</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:15">
       <c r="C64" s="85" t="s">
         <v>82</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9">
       <c r="C65" s="74"/>
       <c r="D65" s="74"/>
       <c r="E65" s="74"/>
@@ -13257,7 +13257,7 @@
       <c r="H65" s="74"/>
       <c r="I65" s="74"/>
     </row>
-    <row r="67" spans="1:9" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9" s="21" customFormat="1" ht="18.600000000000001">
       <c r="A67" s="19">
         <v>3</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9">
       <c r="C69" t="s">
         <v>124</v>
       </c>
@@ -13277,12 +13277,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:9" ht="15.6">
       <c r="C70" s="111" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9">
       <c r="C71" s="29" t="s">
         <v>80</v>
       </c>
@@ -13295,7 +13295,7 @@
       <c r="H71" s="22"/>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9">
       <c r="C72" s="30"/>
       <c r="D72" s="32" t="s">
         <v>82</v>
@@ -13316,7 +13316,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9">
       <c r="C73" s="24" t="s">
         <v>127</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9">
       <c r="C74" s="24" t="s">
         <v>14</v>
       </c>
@@ -13359,7 +13359,7 @@
       <c r="H74" s="43"/>
       <c r="I74" s="44"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9">
       <c r="C75" s="24" t="s">
         <v>16</v>
       </c>
@@ -13373,7 +13373,7 @@
       <c r="H75" s="43"/>
       <c r="I75" s="44"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9">
       <c r="C76" s="24" t="s">
         <v>18</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9">
       <c r="C77" s="24" t="s">
         <v>83</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9">
       <c r="C78" s="24" t="s">
         <v>84</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9">
       <c r="C79" s="26" t="s">
         <v>22</v>
       </c>
@@ -13489,7 +13489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9">
       <c r="C80" s="48" t="s">
         <v>24</v>
       </c>
@@ -13503,7 +13503,7 @@
       <c r="H80" s="46"/>
       <c r="I80" s="47"/>
     </row>
-    <row r="84" spans="1:19" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:19" s="21" customFormat="1" ht="18.600000000000001">
       <c r="A84" s="19">
         <v>4</v>
       </c>
@@ -13512,17 +13512,17 @@
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="21" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:19" ht="21">
       <c r="C86" s="71" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:19">
       <c r="E87" s="59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:19">
       <c r="C88" s="67" t="s">
         <v>86</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:19">
       <c r="C90" s="67" t="s">
         <v>109</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:19">
       <c r="C91" s="67" t="s">
         <v>91</v>
       </c>
@@ -13591,7 +13591,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:19">
       <c r="C92" s="68" t="s">
         <v>22</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:19">
       <c r="C93" s="68" t="s">
         <v>14</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:19">
       <c r="C94" s="68" t="s">
         <v>24</v>
       </c>
@@ -13698,7 +13698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:19">
       <c r="C95" s="68" t="s">
         <v>84</v>
       </c>
@@ -13727,7 +13727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:19">
       <c r="C96" s="68" t="s">
         <v>18</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="97" spans="3:19">
       <c r="C97" s="68" t="s">
         <v>107</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="100" spans="3:19">
       <c r="C100" s="68"/>
       <c r="D100" s="55"/>
       <c r="E100" s="55"/>
@@ -13814,7 +13814,7 @@
       <c r="H100" s="55"/>
       <c r="I100" s="55"/>
     </row>
-    <row r="101" spans="3:19" ht="21" x14ac:dyDescent="0.65">
+    <row r="101" spans="3:19" ht="21">
       <c r="C101" s="71" t="s">
         <v>130</v>
       </c>
@@ -13825,12 +13825,12 @@
       <c r="H101" s="55"/>
       <c r="I101" s="55"/>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="102" spans="3:19">
       <c r="E102" s="59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="103" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="103" spans="3:19">
       <c r="C103" s="67" t="s">
         <v>86</v>
       </c>
@@ -13838,7 +13838,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="105" spans="3:19">
       <c r="C105" s="67" t="s">
         <v>89</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="106" spans="3:19">
       <c r="C106" s="67" t="s">
         <v>91</v>
       </c>
@@ -13899,7 +13899,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="107" spans="3:19">
       <c r="C107" s="68" t="s">
         <v>22</v>
       </c>
@@ -13942,7 +13942,7 @@
         <v>52203288.759999998</v>
       </c>
     </row>
-    <row r="108" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="108" spans="3:19">
       <c r="C108" s="68" t="s">
         <v>14</v>
       </c>
@@ -13977,7 +13977,7 @@
         <v>20629690.973559324</v>
       </c>
     </row>
-    <row r="109" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="109" spans="3:19">
       <c r="C109" s="68" t="s">
         <v>24</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="110" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="110" spans="3:19">
       <c r="C110" s="68" t="s">
         <v>84</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>23614486</v>
       </c>
     </row>
-    <row r="111" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="111" spans="3:19">
       <c r="C111" s="68" t="s">
         <v>18</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>2154578.606060606</v>
       </c>
     </row>
-    <row r="112" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="112" spans="3:19">
       <c r="C112" s="68" t="s">
         <v>107</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>98827044.339619935</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:19">
       <c r="C115" s="68"/>
       <c r="D115" s="55"/>
       <c r="E115" s="55"/>
@@ -14122,7 +14122,7 @@
       <c r="H115" s="55"/>
       <c r="I115" s="55"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:19">
       <c r="C116" s="68"/>
       <c r="D116" s="55"/>
       <c r="E116" s="55"/>
@@ -14131,7 +14131,7 @@
       <c r="H116" s="55"/>
       <c r="I116" s="55"/>
     </row>
-    <row r="118" spans="1:19" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:19" s="21" customFormat="1" ht="18.600000000000001">
       <c r="A118" s="19">
         <v>5</v>
       </c>
@@ -14140,18 +14140,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:19" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="120" spans="1:19" ht="21" x14ac:dyDescent="0.65">
+    <row r="119" spans="1:19" s="20" customFormat="1" ht="18.600000000000001"/>
+    <row r="120" spans="1:19" ht="21">
       <c r="C120" s="71" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:19">
       <c r="E121" s="59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:19">
       <c r="C122" s="67" t="s">
         <v>86</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:19">
       <c r="C124" s="67" t="s">
         <v>109</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:19">
       <c r="C125" s="67" t="s">
         <v>91</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:19">
       <c r="C126" s="68" t="s">
         <v>22</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:19">
       <c r="C127" s="68" t="s">
         <v>14</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:19">
       <c r="C128" s="68" t="s">
         <v>24</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="129" spans="3:19">
       <c r="C129" s="68" t="s">
         <v>84</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="130" spans="3:19">
       <c r="C130" s="68" t="s">
         <v>18</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="131" spans="3:19">
       <c r="C131" s="68" t="s">
         <v>107</v>
       </c>
@@ -14434,17 +14434,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="3:19" ht="21" x14ac:dyDescent="0.65">
+    <row r="134" spans="3:19" ht="21">
       <c r="C134" s="71" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="135" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="135" spans="3:19">
       <c r="E135" s="59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="136" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="136" spans="3:19">
       <c r="C136" s="67" t="s">
         <v>86</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="138" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="138" spans="3:19">
       <c r="C138" s="67" t="s">
         <v>89</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="139" spans="3:19">
       <c r="C139" s="67" t="s">
         <v>91</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="140" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="140" spans="3:19">
       <c r="C140" s="68" t="s">
         <v>22</v>
       </c>
@@ -14494,7 +14494,7 @@
         <v>14131295</v>
       </c>
     </row>
-    <row r="141" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="141" spans="3:19">
       <c r="C141" s="68" t="s">
         <v>14</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>14629690.973559324</v>
       </c>
     </row>
-    <row r="142" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="142" spans="3:19">
       <c r="C142" s="68" t="s">
         <v>84</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>7200000</v>
       </c>
     </row>
-    <row r="143" spans="3:19" x14ac:dyDescent="0.45">
+    <row r="143" spans="3:19">
       <c r="C143" s="68" t="s">
         <v>107</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>35960985.97355932</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:7" s="21" customFormat="1" ht="18.600000000000001">
       <c r="A148" s="19">
         <v>6</v>
       </c>
@@ -14546,17 +14546,17 @@
         <v>134</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="21" x14ac:dyDescent="0.65">
+    <row r="150" spans="1:7" ht="21">
       <c r="C150" s="71" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7">
       <c r="E151" s="59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7">
       <c r="C152" s="67" t="s">
         <v>86</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7">
       <c r="C154" s="67" t="s">
         <v>109</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7">
       <c r="C155" s="67" t="s">
         <v>91</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7">
       <c r="C156" s="68" t="s">
         <v>24</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7">
       <c r="C157" s="68" t="s">
         <v>107</v>
       </c>
@@ -14623,17 +14623,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="21" x14ac:dyDescent="0.65">
+    <row r="159" spans="1:7" ht="21">
       <c r="C159" s="71" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7">
       <c r="E160" s="59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:16">
       <c r="C161" s="67" t="s">
         <v>86</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:16">
       <c r="C163" s="67" t="s">
         <v>89</v>
       </c>
@@ -14649,7 +14649,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:16">
       <c r="C164" s="67" t="s">
         <v>91</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:16">
       <c r="C165" s="68" t="s">
         <v>24</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:16">
       <c r="C166" s="68" t="s">
         <v>107</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="169" spans="1:16" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:16" s="21" customFormat="1" ht="18.600000000000001">
       <c r="A169" s="19">
         <v>7</v>
       </c>
@@ -14709,12 +14709,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:16" ht="15.6">
       <c r="K171" s="111" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:16">
       <c r="C172" s="29" t="s">
         <v>80</v>
       </c>
@@ -14735,7 +14735,7 @@
       <c r="O172" s="22"/>
       <c r="P172" s="23"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:16">
       <c r="C173" s="30"/>
       <c r="D173" s="32" t="s">
         <v>82</v>
@@ -14760,7 +14760,7 @@
       </c>
       <c r="P173" s="25"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:16">
       <c r="C174" s="24" t="s">
         <v>127</v>
       </c>
@@ -14798,7 +14798,7 @@
       <c r="O174" s="27"/>
       <c r="P174" s="28"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:16">
       <c r="C175" s="24" t="s">
         <v>14</v>
       </c>
@@ -14812,7 +14812,7 @@
       <c r="H175" s="96"/>
       <c r="I175" s="44"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:16">
       <c r="C176" s="24" t="s">
         <v>16</v>
       </c>
@@ -14826,7 +14826,7 @@
       <c r="H176" s="96"/>
       <c r="I176" s="44"/>
     </row>
-    <row r="177" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="177" spans="3:9">
       <c r="C177" s="24" t="s">
         <v>18</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="178" spans="3:9">
       <c r="C178" s="24" t="s">
         <v>83</v>
       </c>
@@ -14866,7 +14866,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="39"/>
     </row>
-    <row r="179" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="179" spans="3:9">
       <c r="C179" s="24" t="s">
         <v>84</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="180" spans="3:9">
       <c r="C180" s="26" t="s">
         <v>22</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="181" spans="3:9">
       <c r="C181" s="48" t="s">
         <v>24</v>
       </c>
@@ -14938,12 +14938,12 @@
       <c r="H181" s="46"/>
       <c r="I181" s="47"/>
     </row>
-    <row r="183" spans="3:9" ht="21" x14ac:dyDescent="0.65">
+    <row r="183" spans="3:9" ht="21">
       <c r="C183" s="71" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="185" spans="3:9">
       <c r="C185" s="67" t="s">
         <v>141</v>
       </c>
@@ -14954,7 +14954,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="187" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="187" spans="3:9">
       <c r="C187" s="67" t="s">
         <v>109</v>
       </c>
@@ -14962,7 +14962,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="188" spans="3:9">
       <c r="C188" s="67" t="s">
         <v>91</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="189" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="189" spans="3:9">
       <c r="C189" s="68" t="s">
         <v>22</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="190" spans="3:9">
       <c r="C190" s="68" t="s">
         <v>107</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="3:9" ht="21" x14ac:dyDescent="0.65">
+    <row r="192" spans="3:9" ht="21">
       <c r="C192" s="71" t="s">
         <v>78</v>
       </c>
@@ -15015,7 +15015,7 @@
       <c r="H192" s="55"/>
       <c r="I192" s="55"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:6">
       <c r="C194" s="67" t="s">
         <v>141</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:6">
       <c r="C196" s="67" t="s">
         <v>89</v>
       </c>
@@ -15034,7 +15034,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:6">
       <c r="C197" s="67" t="s">
         <v>91</v>
       </c>
@@ -15048,7 +15048,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:6">
       <c r="C198" s="68" t="s">
         <v>22</v>
       </c>
@@ -15062,7 +15062,7 @@
         <v>4500514</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:6">
       <c r="C199" s="68" t="s">
         <v>107</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>4500514</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:6" s="21" customFormat="1" ht="18.600000000000001">
       <c r="A203" s="19">
         <v>8</v>
       </c>
@@ -15085,13 +15085,13 @@
         <v>142</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6">
       <c r="C205" s="18"/>
       <c r="D205" s="59" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:6">
       <c r="C207" s="67" t="s">
         <v>144</v>
       </c>
@@ -15105,7 +15105,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:6">
       <c r="C208" t="s">
         <v>66</v>
       </c>
@@ -15117,7 +15117,7 @@
       </c>
       <c r="F208" s="209"/>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="209" spans="3:6">
       <c r="D209" t="s">
         <v>101</v>
       </c>
@@ -15126,7 +15126,7 @@
       </c>
       <c r="F209" s="209"/>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="210" spans="3:6">
       <c r="D210" t="s">
         <v>104</v>
       </c>
@@ -15135,7 +15135,7 @@
       </c>
       <c r="F210" s="209"/>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="211" spans="3:6">
       <c r="D211" t="s">
         <v>98</v>
       </c>
@@ -15144,7 +15144,7 @@
       </c>
       <c r="F211" s="209"/>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="212" spans="3:6">
       <c r="D212" t="s">
         <v>103</v>
       </c>
@@ -15153,7 +15153,7 @@
       </c>
       <c r="F212" s="209"/>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="213" spans="3:6">
       <c r="C213" t="s">
         <v>64</v>
       </c>
@@ -15167,7 +15167,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="214" spans="3:6">
       <c r="D214" t="s">
         <v>93</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="215" spans="3:6">
       <c r="D215" t="s">
         <v>94</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="216" spans="3:6">
       <c r="D216" t="s">
         <v>95</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>0.80000000000000016</v>
       </c>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="217" spans="3:6">
       <c r="D217" t="s">
         <v>106</v>
       </c>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="F217" s="209"/>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="218" spans="3:6">
       <c r="D218" t="s">
         <v>101</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="219" spans="3:6">
       <c r="D219" t="s">
         <v>97</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="220" spans="3:6">
       <c r="D220" t="s">
         <v>104</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="221" spans="3:6">
       <c r="D221" t="s">
         <v>98</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="222" spans="3:6">
       <c r="D222" t="s">
         <v>103</v>
       </c>
@@ -15262,7 +15262,7 @@
       </c>
       <c r="F222" s="209"/>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="223" spans="3:6">
       <c r="C223" t="s">
         <v>65</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="224" spans="3:6">
       <c r="D224" t="s">
         <v>95</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="225" spans="4:6">
       <c r="D225" t="s">
         <v>105</v>
       </c>
@@ -15298,7 +15298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="226" spans="4:6">
       <c r="D226" t="s">
         <v>106</v>
       </c>
@@ -15307,7 +15307,7 @@
       </c>
       <c r="F226" s="209"/>
     </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="227" spans="4:6">
       <c r="D227" t="s">
         <v>104</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="228" spans="4:6">
       <c r="D228" t="s">
         <v>103</v>
       </c>
@@ -15362,45 +15362,45 @@
   <dimension ref="A1:AK42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R1" sqref="R1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="32.1328125" customWidth="1"/>
-    <col min="3" max="3" width="19.86328125" customWidth="1"/>
-    <col min="4" max="4" width="16.86328125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="20.1328125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="14.3984375" style="68" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.1328125" style="191" customWidth="1"/>
-    <col min="8" max="8" width="33.1328125" style="179" customWidth="1"/>
-    <col min="9" max="9" width="241.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.86328125" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="29.1328125" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="34.86328125" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="14.1328125" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="20.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14.42578125" style="68" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.140625" style="191" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" style="179" customWidth="1"/>
+    <col min="9" max="9" width="241.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="29.140625" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="34.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="21" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="36.86328125" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="34.86328125" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="33.86328125" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="21.86328125" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="57.86328125" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="42.3984375" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="25.86328125" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="24" width="33.1328125" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="255.86328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="34.265625" customWidth="1"/>
-    <col min="27" max="27" width="0.86328125" customWidth="1"/>
+    <col min="15" max="15" width="36.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="34.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="33.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="21.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="57.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="42.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="25.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="24" width="33.140625" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="255.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34.28515625" customWidth="1"/>
+    <col min="27" max="27" width="0.85546875" customWidth="1"/>
     <col min="28" max="28" width="25" customWidth="1"/>
-    <col min="29" max="30" width="40.1328125" customWidth="1"/>
-    <col min="31" max="33" width="63.3984375" customWidth="1"/>
-    <col min="34" max="34" width="15.86328125" customWidth="1"/>
-    <col min="35" max="35" width="15.1328125" customWidth="1"/>
-    <col min="36" max="36" width="2.86328125" style="31" customWidth="1"/>
+    <col min="29" max="30" width="40.140625" customWidth="1"/>
+    <col min="31" max="33" width="63.42578125" customWidth="1"/>
+    <col min="34" max="34" width="15.85546875" customWidth="1"/>
+    <col min="35" max="35" width="15.140625" customWidth="1"/>
+    <col min="36" max="36" width="2.85546875" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37">
       <c r="A1" s="119" t="s">
         <v>147</v>
       </c>
@@ -15513,7 +15513,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A42" si="0">CONCATENATE(C2,F2,L2)</f>
         <v>AfghanistanTBD44649</v>
@@ -15572,11 +15572,11 @@
       </c>
       <c r="AA2" s="66">
         <f t="shared" ref="AA2:AA42" ca="1" si="1">_xlfn.DAYS(TODAY(),$N2)</f>
-        <v>44868</v>
+        <v>44827</v>
       </c>
       <c r="AB2" s="66">
         <f t="shared" ref="AB2:AB42" ca="1" si="2">_xlfn.DAYS(TODAY(),$L2)</f>
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="AC2" s="12" t="str">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
@@ -15608,10 +15608,10 @@
       </c>
       <c r="AK2" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="15.75" customHeight="1">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Burkina Faso50000044515</v>
@@ -15692,15 +15692,15 @@
       </c>
       <c r="AA3" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="AB3" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="AC3" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="AD3" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -15731,7 +15731,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" ht="15.75" customHeight="1">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Chad539093844725</v>
@@ -15805,11 +15805,11 @@
       </c>
       <c r="AA4" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44827</v>
       </c>
       <c r="AB4" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AC4" s="12" t="str">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
@@ -15838,10 +15838,10 @@
       </c>
       <c r="AK4" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Chad804861444613</v>
@@ -15928,15 +15928,15 @@
       </c>
       <c r="AA5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="AB5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="AC5" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="AD5" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -15967,7 +15967,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Chad804861444613</v>
@@ -16052,15 +16052,15 @@
       </c>
       <c r="AA6" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="AB6" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="AC6" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="AD6" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -16094,7 +16094,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Chad804861444613</v>
@@ -16181,15 +16181,15 @@
       </c>
       <c r="AA7" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="AB7" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="AC7" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="AD7" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -16223,7 +16223,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>DRC345802844600</v>
@@ -16310,15 +16310,15 @@
       </c>
       <c r="AA8" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="AB8" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="AC8" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="AD8" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -16349,7 +16349,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>DRC300000044721</v>
@@ -16423,11 +16423,11 @@
       </c>
       <c r="AA9" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44827</v>
       </c>
       <c r="AB9" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="AC9" s="12" t="str">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
@@ -16456,10 +16456,10 @@
       </c>
       <c r="AK9" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Ethiopia440000044677</v>
@@ -16546,15 +16546,15 @@
       </c>
       <c r="AA10" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="AB10" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="AC10" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="AD10" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -16585,7 +16585,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" ht="43.5">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Ethiopia540000044604</v>
@@ -16673,15 +16673,15 @@
       </c>
       <c r="AA11" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="AB11" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="AC11" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="AD11" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -16712,7 +16712,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Ethiopia540000044604</v>
@@ -16800,15 +16800,15 @@
       </c>
       <c r="AA12" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="AB12" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="AC12" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="AD12" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -16839,7 +16839,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="62" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" s="62" customFormat="1">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Ethiopia340000044677</v>
@@ -16927,15 +16927,15 @@
       </c>
       <c r="AA13" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="AB13" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="AC13" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="AD13" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -16964,7 +16964,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" s="159" customFormat="1" ht="14.25" customHeight="1">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Ethiopia440000044677</v>
@@ -17051,15 +17051,15 @@
       </c>
       <c r="AA14" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="AB14" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="AC14" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="AD14" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -17093,7 +17093,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="134" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:37" s="134" customFormat="1" ht="13.5" customHeight="1">
       <c r="A15" s="62" t="str">
         <f t="shared" si="0"/>
         <v>Ethiopia800000044587</v>
@@ -17174,15 +17174,15 @@
       </c>
       <c r="AA15" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="AB15" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="AC15" s="66">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="AD15" s="66" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -17214,7 +17214,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="159" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" s="159" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>GhanaTBD44637</v>
@@ -17281,11 +17281,11 @@
       </c>
       <c r="AA16" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44827</v>
       </c>
       <c r="AB16" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="AC16" s="12" t="str">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
@@ -17318,10 +17318,10 @@
       </c>
       <c r="AK16" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" s="172" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" s="172" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Kenya1794314.444710</v>
@@ -17408,15 +17408,15 @@
       </c>
       <c r="AA17" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="AB17" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="AC17" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="AD17" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -17445,7 +17445,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="159" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" s="159" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="62" t="str">
         <f t="shared" si="0"/>
         <v>LaoTBD44613</v>
@@ -17514,11 +17514,11 @@
       </c>
       <c r="AA18" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44827</v>
       </c>
       <c r="AB18" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="AC18" s="66" t="str">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
@@ -17551,10 +17551,10 @@
       </c>
       <c r="AK18" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" s="172" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" s="172" customFormat="1" ht="12.75" customHeight="1">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Malawi2154578.6060606144729</v>
@@ -17638,19 +17638,19 @@
       </c>
       <c r="AA19" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AB19" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AC19" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AD19" s="12">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="AE19" s="12"/>
       <c r="AF19" s="12" t="str">
@@ -17672,10 +17672,10 @@
       </c>
       <c r="AK19" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" s="135" customFormat="1" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" s="135" customFormat="1">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Malawi2154578.6060606144729</v>
@@ -17756,19 +17756,19 @@
       </c>
       <c r="AA20" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AB20" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AC20" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AD20" s="12">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="AE20" s="12"/>
       <c r="AF20" s="12" t="str">
@@ -17790,10 +17790,10 @@
       </c>
       <c r="AK20" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" ht="9.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="9.75" customHeight="1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Nigeria280000044670</v>
@@ -17881,15 +17881,15 @@
       </c>
       <c r="AA21" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="AB21" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="AC21" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="AD21" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -17920,7 +17920,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Nigeria300000044631</v>
@@ -17982,11 +17982,11 @@
       </c>
       <c r="AA22" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44827</v>
       </c>
       <c r="AB22" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="AC22" s="12" t="str">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
@@ -18018,10 +18018,10 @@
       </c>
       <c r="AK22" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Nigeria610000044670</v>
@@ -18109,15 +18109,15 @@
       </c>
       <c r="AA23" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="AB23" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="AC23" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="AD23" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -18149,7 +18149,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="62" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" s="62" customFormat="1">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Nigeria620000044677</v>
@@ -18232,19 +18232,19 @@
       </c>
       <c r="AA24" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="AB24" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="AC24" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="AD24" s="12">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="AE24" s="12" t="str">
         <f t="shared" si="4"/>
@@ -18269,10 +18269,10 @@
       </c>
       <c r="AK24" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" ht="42.75" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" ht="43.5">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Sierra Leone152000044624</v>
@@ -18359,15 +18359,15 @@
       </c>
       <c r="AA25" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="AB25" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="AC25" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="AD25" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -18398,7 +18398,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Somalia1743000044670</v>
@@ -18482,19 +18482,19 @@
       </c>
       <c r="AA26" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="AB26" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="AC26" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="AD26" s="12">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="AE26" s="12" t="str">
         <f t="shared" si="4"/>
@@ -18518,10 +18518,10 @@
       </c>
       <c r="AK26" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Somalia1743000044670</v>
@@ -18602,19 +18602,19 @@
       </c>
       <c r="AA27" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="AB27" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="AC27" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="AD27" s="12">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="AE27" s="12"/>
       <c r="AF27" s="12" t="str">
@@ -18635,10 +18635,10 @@
       </c>
       <c r="AK27" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" ht="12.75" customHeight="1">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Somalia1743000044670</v>
@@ -18726,15 +18726,15 @@
       </c>
       <c r="AA28" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="AB28" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="AC28" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="AD28" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -18762,7 +18762,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" ht="13.35" customHeight="1">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Somalia36600044670</v>
@@ -18844,19 +18844,19 @@
       </c>
       <c r="AA29" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="AB29" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="AC29" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="AD29" s="12">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="AE29" s="12"/>
       <c r="AF29" s="12" t="str">
@@ -18877,10 +18877,10 @@
       </c>
       <c r="AK29" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Somalia1743000044711</v>
@@ -18968,15 +18968,15 @@
       </c>
       <c r="AA30" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="AB30" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="AC30" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="AD30" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -19007,7 +19007,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37">
       <c r="A31" s="148" t="str">
         <f t="shared" si="0"/>
         <v>South Sudan1488200044620</v>
@@ -19093,15 +19093,15 @@
       </c>
       <c r="AA31" s="156">
         <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="AB31" s="156">
         <f t="shared" ca="1" si="2"/>
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="AC31" s="156">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="AD31" s="156" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -19130,7 +19130,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37">
       <c r="A32" s="161" t="str">
         <f t="shared" si="0"/>
         <v>South Sudan1488200044620</v>
@@ -19216,15 +19216,15 @@
       </c>
       <c r="AA32" s="169">
         <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="AB32" s="169">
         <f t="shared" ca="1" si="2"/>
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="AC32" s="169">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="AD32" s="169" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -19253,7 +19253,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:37">
       <c r="A33" s="148" t="str">
         <f t="shared" si="0"/>
         <v>South Sudan1488200044620</v>
@@ -19339,15 +19339,15 @@
       </c>
       <c r="AA33" s="156">
         <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="AB33" s="156">
         <f t="shared" ca="1" si="2"/>
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="AC33" s="156">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="AD33" s="156" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -19376,7 +19376,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:37">
       <c r="A34" s="128" t="str">
         <f t="shared" si="0"/>
         <v>South Sudan1488200044620</v>
@@ -19462,15 +19462,15 @@
       </c>
       <c r="AA34" s="169">
         <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="AB34" s="169">
         <f t="shared" ca="1" si="2"/>
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="AC34" s="169">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="AD34" s="169" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -19499,7 +19499,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:37">
       <c r="A35" s="135" t="str">
         <f t="shared" si="0"/>
         <v>South Sudan1488200044620</v>
@@ -19586,15 +19586,15 @@
       </c>
       <c r="AA35" s="133">
         <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="AB35" s="133">
         <f t="shared" ca="1" si="2"/>
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="AC35" s="141">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="AD35" s="141" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -19626,7 +19626,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:37">
       <c r="A36" s="148" t="str">
         <f t="shared" si="0"/>
         <v>South Sudan1488200044620</v>
@@ -19714,15 +19714,15 @@
       </c>
       <c r="AA36" s="156">
         <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="AB36" s="156">
         <f t="shared" ca="1" si="2"/>
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="AC36" s="156">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="AD36" s="156" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -19754,7 +19754,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:37">
       <c r="A37" s="128" t="str">
         <f t="shared" si="0"/>
         <v>South Sudan1488200044663</v>
@@ -19840,15 +19840,15 @@
       </c>
       <c r="AA37" s="133">
         <f t="shared" ca="1" si="1"/>
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="AB37" s="133">
         <f t="shared" ca="1" si="2"/>
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="AC37" s="133">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="AD37" s="133" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -19877,7 +19877,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:37">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Sudan21829690.973559344640</v>
@@ -19959,19 +19959,19 @@
       </c>
       <c r="AA38" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="AB38" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="AC38" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="AD38" s="12">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="AE38" s="12"/>
       <c r="AF38" s="12" t="str">
@@ -19992,10 +19992,10 @@
       </c>
       <c r="AK38" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>228</v>
-      </c>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.45">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Sudan510000044648</v>
@@ -20080,15 +20080,15 @@
       </c>
       <c r="AA39" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="AB39" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="AC39" s="12">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="AD39" s="12" t="str">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
@@ -20119,7 +20119,7 @@
         <v>Disbursed</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:37">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Sudan21829690.973559344640</v>
@@ -20195,11 +20195,11 @@
       </c>
       <c r="AA40" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44827</v>
       </c>
       <c r="AB40" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="AC40" s="12" t="str">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
@@ -20207,7 +20207,7 @@
       </c>
       <c r="AD40" s="12">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>44868</v>
+        <v>44827</v>
       </c>
       <c r="AE40" s="12"/>
       <c r="AF40" s="12" t="str">
@@ -20228,10 +20228,10 @@
       </c>
       <c r="AK40" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.45">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Sudan21829690.973559344650</v>
@@ -20311,11 +20311,11 @@
       </c>
       <c r="AA41" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44827</v>
       </c>
       <c r="AB41" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="AC41" s="12" t="str">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
@@ -20323,7 +20323,7 @@
       </c>
       <c r="AD41" s="12">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="AE41" s="12" t="str">
         <f>IF(V41="","-",_xlfn.DAYS(V41,N41))</f>
@@ -20347,10 +20347,10 @@
       </c>
       <c r="AK41" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37" ht="28.5" x14ac:dyDescent="0.45">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" ht="29.1">
       <c r="A42" s="62" t="str">
         <f t="shared" si="0"/>
         <v>Yemen480000044621</v>
@@ -20420,11 +20420,11 @@
       </c>
       <c r="AA42" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44827</v>
       </c>
       <c r="AB42" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="AC42" s="66" t="str">
         <f ca="1">IF(Table2[[#This Row],[Lead time from formal request received to today (days)]]&lt;400,Table2[[#This Row],[Lead time from formal request received to today (days)]],"-")</f>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="AD42" s="66">
         <f ca="1">IF(AND(Table2[[#This Row],[Funds disbursed (Date)]]="",Table2[[#This Row],[Source of funding identified (Details)]]&lt;&gt;""),TODAY()-Table2[[#This Row],[Sources of funding identified (Date) - or standard request discussed during CoVDP Funding Alignment call]],"-")</f>
-        <v>44868</v>
+        <v>44827</v>
       </c>
       <c r="AE42" s="12" t="str">
         <f>IF(V42="","-",_xlfn.DAYS(V42,N42))</f>
@@ -20457,7 +20457,7 @@
       </c>
       <c r="AK42" s="62">
         <f ca="1">IF(Table2[[#This Row],[Status]]&lt;&gt;Overview!$C$13,Table2[[#This Row],[Lead time from informal request received to today (days)2]],"Disbursed")</f>
-        <v>247</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -20516,16 +20516,16 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="2" width="13.86328125" customWidth="1"/>
-    <col min="3" max="3" width="19.3984375" customWidth="1"/>
-    <col min="4" max="4" width="69.86328125" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" customWidth="1"/>
+    <col min="1" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="69.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="160" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" s="57" t="s">
         <v>304</v>
       </c>
@@ -20545,7 +20545,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="48.75" customHeight="1">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -20609,7 +20609,7 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20623,16 +20623,16 @@
       <selection activeCell="D7" sqref="D7:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="6" max="6" width="30.1328125" customWidth="1"/>
-    <col min="7" max="7" width="40.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1328125" customWidth="1"/>
-    <col min="9" max="9" width="14.86328125" customWidth="1"/>
-    <col min="11" max="11" width="15.1328125" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" s="21" customFormat="1" ht="18.600000000000001">
       <c r="A1" s="19">
         <v>1</v>
       </c>
@@ -20641,17 +20641,17 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11">
       <c r="C2" s="115" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11">
       <c r="C3" s="114" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11">
       <c r="C5" s="125"/>
       <c r="D5" s="127" t="s">
         <v>314</v>
@@ -20678,7 +20678,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11">
       <c r="C6" s="126"/>
       <c r="D6" s="126"/>
       <c r="E6" s="126"/>
@@ -20689,7 +20689,7 @@
       <c r="J6" s="126"/>
       <c r="K6" s="126"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11">
       <c r="C7" s="125" t="s">
         <v>82</v>
       </c>
@@ -20713,7 +20713,7 @@
       <c r="J7" s="112"/>
       <c r="K7" s="112"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11">
       <c r="C8" s="125" t="s">
         <v>65</v>
       </c>
@@ -20738,7 +20738,7 @@
         <v>9157000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11">
       <c r="C9" s="125" t="s">
         <v>66</v>
       </c>
@@ -20763,7 +20763,7 @@
         <v>16561000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11">
       <c r="C10" s="125" t="s">
         <v>64</v>
       </c>
@@ -20788,7 +20788,7 @@
         <v>26485288.759999998</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11">
       <c r="C11" s="125" t="s">
         <v>69</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11">
       <c r="C12" s="125" t="s">
         <v>322</v>
       </c>
@@ -20835,7 +20835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" s="21" customFormat="1" ht="18.600000000000001">
       <c r="A17" s="19">
         <v>2</v>
       </c>
@@ -20844,7 +20844,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11">
       <c r="C20" s="125"/>
       <c r="D20" s="127" t="s">
         <v>314</v>
@@ -20871,7 +20871,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11">
       <c r="C21" s="126"/>
       <c r="D21" s="126"/>
       <c r="E21" s="126"/>
@@ -20882,7 +20882,7 @@
       <c r="J21" s="126"/>
       <c r="K21" s="126"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11">
       <c r="C22" s="125" t="s">
         <v>82</v>
       </c>
@@ -20906,7 +20906,7 @@
       <c r="J22" s="112"/>
       <c r="K22" s="112"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11">
       <c r="C23" s="125" t="s">
         <v>65</v>
       </c>
@@ -20931,7 +20931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11">
       <c r="C24" s="125" t="s">
         <v>66</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>5763000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11">
       <c r="C25" s="125" t="s">
         <v>64</v>
       </c>
@@ -20981,7 +20981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11">
       <c r="C26" s="125" t="s">
         <v>69</v>
       </c>
@@ -21006,7 +21006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11">
       <c r="C27" s="125" t="s">
         <v>322</v>
       </c>
@@ -21045,7 +21045,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21284,37 +21284,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A915D1A-18AD-4B30-BF03-467F55554A05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A915D1A-18AD-4B30-BF03-467F55554A05}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5277850E-7C3F-4765-B404-56867E9CDD6E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b370a6fa-a798-42e0-969d-19c284d8683f"/>
-    <ds:schemaRef ds:uri="62ca1376-8bea-4949-825e-fec085c3924e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5277850E-7C3F-4765-B404-56867E9CDD6E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C313A188-427D-4CF3-BDF7-2C5D4A5374CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C313A188-427D-4CF3-BDF7-2C5D4A5374CA}"/>
 </file>